--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM10_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1298 +397,1417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>51.81879369038134</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>2.264261890083861</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>13.28468398232064</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>16.91757708199768</v>
+      </c>
+      <c r="F2">
         <v>18.11124937600731</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>72.99395405950128</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>2.863177134413339</v>
       </c>
-      <c r="H2" t="n">
-        <v>161.3361201327078</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>178.2536972147055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>38.53980110437458</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2.358606135504022</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>12.97573784319691</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>11.90496165029466</v>
+      </c>
+      <c r="F3">
         <v>18.88376712190335</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>51.30235450408347</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>2.189488396904317</v>
       </c>
-      <c r="H3" t="n">
-        <v>126.2497551059666</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>138.1547167562613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>41.68033405530676</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2.547294626344343</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>10.81311486933076</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>16.91757708199768</v>
+      </c>
+      <c r="F4">
         <v>15.53619022302049</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>50.61373229597497</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>1.010533106263531</v>
       </c>
-      <c r="H4" t="n">
-        <v>122.2011991762409</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>139.1187762582385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>38.84702715392228</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>3.113360098865309</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>14.21152239969186</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>13.78469243718329</v>
+      </c>
+      <c r="F5">
         <v>13.04696637513323</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>45.79337683921543</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>1.852644028149807</v>
       </c>
-      <c r="H5" t="n">
-        <v>116.8648968949779</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>130.6495893321612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>40.34902117393334</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>3.773769816806436</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>12.0488994258257</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>17.857442475442</v>
+      </c>
+      <c r="F6">
         <v>15.10701369752269</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>47.51493235948669</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>2.021066212527062</v>
       </c>
-      <c r="H6" t="n">
-        <v>120.8147026861019</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>138.6721451615439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>39.66629661938285</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3.019015853445148</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>14.82941467793932</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>13.47140397270186</v>
+      </c>
+      <c r="F7">
         <v>16.99539040971302</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>48.54786567164945</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>1.852644028149807</v>
       </c>
-      <c r="H7" t="n">
-        <v>124.9106272602796</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>138.3820312329814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>41.78274273848932</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>3.302048589705631</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>10.19522259108328</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>14.41126936614617</v>
+      </c>
+      <c r="F8">
         <v>15.27868430772181</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>37.18559923785916</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>2.357910581281573</v>
       </c>
-      <c r="H8" t="n">
-        <v>110.1022080461408</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>124.513477412287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>57.00750030496501</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1.886884908403218</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>20.39044518216657</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>19.42388479784919</v>
+      </c>
+      <c r="F9">
         <v>16.90955510461346</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>36.1526659256964</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>1.684221843772552</v>
       </c>
-      <c r="H9" t="n">
-        <v>134.0312732696172</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>153.4551580674664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>69.50135965323879</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>2.547294626344343</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>12.0488994258257</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>19.73717326233063</v>
+      </c>
+      <c r="F10">
         <v>10.12856600174817</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>13.77244416217006</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>3.705288056299614</v>
       </c>
-      <c r="H10" t="n">
-        <v>111.7038519256267</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>131.4410251879573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>66.94114257367448</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>2.264261890083861</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>10.19522259108328</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>23.18334637162646</v>
+      </c>
+      <c r="F11">
         <v>7.2101656283631</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>8.607777601356284</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.6736887375090209</v>
       </c>
-      <c r="H11" t="n">
-        <v>95.89225902207004</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>119.0756053936965</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>48.16621732353632</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>3.113360098865309</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>8.95943803458834</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>21.9301925137007</v>
+      </c>
+      <c r="F12">
         <v>4.549271170276717</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>11.70657753784455</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.3368443687545105</v>
       </c>
-      <c r="H12" t="n">
-        <v>76.83170853386574</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>98.76190104756644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>34.7506798266194</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>4.905900761848365</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>6.487868921598456</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>18.79730786888631</v>
+      </c>
+      <c r="F13">
         <v>3.690918119281111</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>12.0508886418988</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.842110921886276</v>
       </c>
-      <c r="H13" t="n">
-        <v>62.72836719313241</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>81.52567506201871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>26.04594175610077</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>2.830327362604826</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>3.398407530361095</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>18.48401940440487</v>
+      </c>
+      <c r="F14">
         <v>2.31755323768814</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>6.197599872976525</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.842110921886276</v>
       </c>
-      <c r="H14" t="n">
-        <v>41.63194068161763</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>60.1159600860225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>16.41952553693903</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3.773769816806436</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>3.398407530361095</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>10.33851932788747</v>
+      </c>
+      <c r="F15">
         <v>2.060047322389457</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>4.476044352705269</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.3368443687545105</v>
       </c>
-      <c r="H15" t="n">
-        <v>30.4646389279558</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>40.80315825584327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>9.660552446889284</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>2.169917644663701</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>1.235784556494944</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>4.699326967221578</v>
+      </c>
+      <c r="F16">
         <v>1.888376712190336</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>7.57484428919353</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.3368443687545105</v>
       </c>
-      <c r="H16" t="n">
-        <v>22.8663200181863</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>27.56564698540788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>5.837294941406597</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1.603852172142735</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.3089461391237359</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>1.879730786888631</v>
+      </c>
+      <c r="F17">
         <v>2.746729763185943</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>7.230533185139279</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17">
         <v>0.1684221843772552</v>
       </c>
-      <c r="H17" t="n">
-        <v>17.89577838537555</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>19.77550917226418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>4.369437149123068</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>2.452950380924182</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.6178922782474718</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>0.6265769289628772</v>
+      </c>
+      <c r="F18">
         <v>2.31755323768814</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>5.164666560813774</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>14.92249960679663</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>15.54907653575951</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>2.560217079564298</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1.132130945041931</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.9268384173712075</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.3132884644814386</v>
+      </c>
+      <c r="F19">
         <v>1.802541407090775</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>7.57484428919353</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>13.99657213826174</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>14.30986060274318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>3.481895228207444</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.8490982087814478</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.9268384173712075</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>2.506307715851509</v>
+      </c>
+      <c r="F20">
         <v>1.716706101991215</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>4.131733248651016</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>11.10627120500233</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>13.61257892085384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>6.997926684142413</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1.320819435882252</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.9268384173712075</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>1.566442322407192</v>
+      </c>
+      <c r="F21">
         <v>2.31755323768814</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>8.607777601356284</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.5052665531317655</v>
       </c>
-      <c r="H21" t="n">
-        <v>20.67618192957206</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>22.24262425197925</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>20.75482645833458</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1.698196417562896</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>5.869976643350982</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>6.892346218591646</v>
+      </c>
+      <c r="F22">
         <v>5.321788916172764</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>16.52693299460406</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.1684221843772552</v>
       </c>
-      <c r="H22" t="n">
-        <v>50.34014361440254</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>57.23248983299418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>35.22858701480472</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1.226475190462091</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>8.032599617217134</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>18.48401940440487</v>
+      </c>
+      <c r="F23">
         <v>7.296000933462662</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>22.7245328675806</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>2.021066212527062</v>
       </c>
-      <c r="H23" t="n">
-        <v>76.52926183605426</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>95.01328124045912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>55.33482514631635</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>1.226475190462091</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>8.032599617217134</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>23.18334637162646</v>
+      </c>
+      <c r="F24">
         <v>10.90108374764421</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>25.82333280406887</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>3.536865871922359</v>
       </c>
-      <c r="H24" t="n">
-        <v>104.855182377631</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>128.0385287492575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>53.79869489857775</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>2.075573399243539</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>8.650491895464608</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>21.9301925137007</v>
+      </c>
+      <c r="F25">
         <v>9.098542340553434</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>30.98799936488263</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.6736887375090209</v>
       </c>
-      <c r="H25" t="n">
-        <v>105.284990636231</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>127.2151831499317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>51.81879369038134</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>2.264261890083861</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>13.28468398232064</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>16.91757708199768</v>
+      </c>
+      <c r="F26">
         <v>18.11124937600731</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>72.99395405950128</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>2.863177134413339</v>
       </c>
-      <c r="H26" t="n">
-        <v>161.3361201327078</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>178.2536972147055</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>42.29478615440218</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>2.547294626344343</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>8.650491895464608</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>16.60428861751624</v>
+      </c>
+      <c r="F27">
         <v>17.51040224031038</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>63.00893204192801</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>2.189488396904317</v>
       </c>
-      <c r="H27" t="n">
-        <v>136.2013953553538</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>152.8056839728701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>45.43531910533437</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>4.528523780167722</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>12.97573784319691</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>18.48401940440487</v>
+      </c>
+      <c r="F28">
         <v>13.04696637513323</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>56.12270996084299</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>1.515799659395296</v>
       </c>
-      <c r="H28" t="n">
-        <v>133.6250567240705</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>152.1090761284754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>41.06588195621133</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>2.169917644663701</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>11.73995328670196</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>20.05046172681207</v>
+      </c>
+      <c r="F29">
         <v>11.50193088334114</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>35.4640437175879</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.3368443687545105</v>
       </c>
-      <c r="H29" t="n">
-        <v>102.2785718572605</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>122.3290335840726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>43.11405561986274</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>2.358606135504022</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>11.12206100845449</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>16.60428861751624</v>
+      </c>
+      <c r="F30">
         <v>17.68207285050951</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>43.38319911083569</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>1.347377475018042</v>
       </c>
-      <c r="H30" t="n">
-        <v>119.0073722001845</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>135.6116608177007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>44.06986999623341</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>2.358606135504022</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>11.73995328670196</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>17.54415401096056</v>
+      </c>
+      <c r="F31">
         <v>14.07699003632796</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>40.28439917434742</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>3.368443687545104</v>
       </c>
-      <c r="H31" t="n">
-        <v>115.8982623166599</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>133.4424163276204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>51.85292991810889</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>2.547294626344343</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>7.41470733896966</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>19.11059633336775</v>
+      </c>
+      <c r="F32">
         <v>16.65204918931478</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>37.87422144596767</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>2.357910581281573</v>
       </c>
-      <c r="H32" t="n">
-        <v>118.6991130999869</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>137.8097094333547</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>57.00750030496501</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1.886884908403218</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>20.39044518216657</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>19.42388479784919</v>
+      </c>
+      <c r="F33">
         <v>16.90955510461346</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>36.1526659256964</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>1.684221843772552</v>
       </c>
-      <c r="H33" t="n">
-        <v>134.0312732696172</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>153.4551580674664</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>69.50135965323879</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>2.547294626344343</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>12.0488994258257</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>19.73717326233063</v>
+      </c>
+      <c r="F34">
         <v>10.12856600174817</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>13.77244416217006</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>3.705288056299614</v>
       </c>
-      <c r="H34" t="n">
-        <v>111.7038519256267</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>131.4410251879573</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>66.94114257367448</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>2.264261890083861</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>10.19522259108328</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>23.18334637162646</v>
+      </c>
+      <c r="F35">
         <v>7.2101656283631</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>8.607777601356284</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.6736887375090209</v>
       </c>
-      <c r="H35" t="n">
-        <v>95.89225902207004</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>119.0756053936965</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>48.16621732353632</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>3.113360098865309</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>8.95943803458834</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>21.9301925137007</v>
+      </c>
+      <c r="F36">
         <v>4.549271170276717</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>11.70657753784455</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.3368443687545105</v>
       </c>
-      <c r="H36" t="n">
-        <v>76.83170853386574</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>98.76190104756644</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>34.7506798266194</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>4.905900761848365</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>6.487868921598456</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>18.79730786888631</v>
+      </c>
+      <c r="F37">
         <v>3.690918119281111</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>12.0508886418988</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.842110921886276</v>
       </c>
-      <c r="H37" t="n">
-        <v>62.72836719313241</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>81.52567506201871</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>26.04594175610077</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>2.830327362604826</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>3.398407530361095</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>18.48401940440487</v>
+      </c>
+      <c r="F38">
         <v>2.31755323768814</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>6.197599872976525</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.842110921886276</v>
       </c>
-      <c r="H38" t="n">
-        <v>41.63194068161763</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>60.1159600860225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>16.41952553693903</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>3.773769816806436</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>3.398407530361095</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>10.33851932788747</v>
+      </c>
+      <c r="F39">
         <v>2.060047322389457</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>4.476044352705269</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.3368443687545105</v>
       </c>
-      <c r="H39" t="n">
-        <v>30.4646389279558</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>40.80315825584327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>9.660552446889284</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>2.169917644663701</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>1.235784556494944</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>4.699326967221578</v>
+      </c>
+      <c r="F40">
         <v>1.888376712190336</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>7.57484428919353</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>0.3368443687545105</v>
       </c>
-      <c r="H40" t="n">
-        <v>22.8663200181863</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>27.56564698540788</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>5.837294941406597</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1.603852172142735</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.3089461391237359</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>1.879730786888631</v>
+      </c>
+      <c r="F41">
         <v>2.746729763185943</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>7.230533185139279</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41">
         <v>0.1684221843772552</v>
       </c>
-      <c r="H41" t="n">
-        <v>17.89577838537555</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>19.77550917226418</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>4.369437149123068</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>2.452950380924182</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.6178922782474718</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>0.6265769289628772</v>
+      </c>
+      <c r="F42">
         <v>2.31755323768814</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>5.164666560813774</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>14.92249960679663</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>15.54907653575951</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>2.560217079564298</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>1.132130945041931</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.9268384173712075</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.3132884644814386</v>
+      </c>
+      <c r="F43">
         <v>1.802541407090775</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>7.57484428919353</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>13.99657213826174</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>14.30986060274318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>3.481895228207444</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.8490982087814478</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.9268384173712075</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>2.506307715851509</v>
+      </c>
+      <c r="F44">
         <v>1.716706101991215</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>4.131733248651016</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>11.10627120500233</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>13.61257892085384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>6.997926684142413</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>1.320819435882252</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>0.9268384173712075</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>1.566442322407192</v>
+      </c>
+      <c r="F45">
         <v>2.31755323768814</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>8.607777601356284</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.5052665531317655</v>
       </c>
-      <c r="H45" t="n">
-        <v>20.67618192957206</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>22.24262425197925</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>20.75482645833458</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>1.698196417562896</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>5.869976643350982</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>6.892346218591646</v>
+      </c>
+      <c r="F46">
         <v>5.321788916172764</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>16.52693299460406</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.1684221843772552</v>
       </c>
-      <c r="H46" t="n">
-        <v>50.34014361440254</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>57.23248983299418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>35.22858701480472</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1.226475190462091</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>8.032599617217134</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>18.48401940440487</v>
+      </c>
+      <c r="F47">
         <v>7.296000933462662</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>22.7245328675806</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>2.021066212527062</v>
       </c>
-      <c r="H47" t="n">
-        <v>76.52926183605426</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>95.01328124045912</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>55.33482514631635</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1.226475190462091</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>8.032599617217134</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>23.18334637162646</v>
+      </c>
+      <c r="F48">
         <v>10.90108374764421</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>25.82333280406887</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>3.536865871922359</v>
       </c>
-      <c r="H48" t="n">
-        <v>104.855182377631</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>128.0385287492575</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>53.79869489857775</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>2.075573399243539</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>8.650491895464608</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>21.9301925137007</v>
+      </c>
+      <c r="F49">
         <v>9.098542340553434</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>30.98799936488263</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.6736887375090209</v>
       </c>
-      <c r="H49" t="n">
-        <v>105.284990636231</v>
+      <c r="I49">
+        <v>127.2151831499317</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>51.81879369038134</v>
+        <v>87.86665017064665</v>
       </c>
       <c r="C2">
-        <v>2.264261890083861</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="D2">
-        <v>13.28468398232064</v>
+        <v>22.52620327436979</v>
       </c>
       <c r="E2">
-        <v>16.91757708199768</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="F2">
-        <v>18.11124937600731</v>
+        <v>30.71037937670806</v>
       </c>
       <c r="G2">
-        <v>72.99395405950128</v>
+        <v>123.7723568835022</v>
       </c>
       <c r="H2">
-        <v>2.863177134413339</v>
+        <v>4.854952532266095</v>
       </c>
       <c r="I2">
-        <v>178.2536972147055</v>
+        <v>302.2562691901528</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>38.53980110437458</v>
+        <v>65.35009752480902</v>
       </c>
       <c r="C3">
-        <v>2.358606135504022</v>
+        <v>3.999375621072037</v>
       </c>
       <c r="D3">
-        <v>12.97573784319691</v>
+        <v>22.00233808194258</v>
       </c>
       <c r="E3">
-        <v>11.90496165029466</v>
+        <v>20.18667410267356</v>
       </c>
       <c r="F3">
-        <v>18.88376712190335</v>
+        <v>32.02030077192308</v>
       </c>
       <c r="G3">
-        <v>51.30235450408347</v>
+        <v>86.99094894170673</v>
       </c>
       <c r="H3">
-        <v>2.189488396904317</v>
+        <v>3.712610759968191</v>
       </c>
       <c r="I3">
-        <v>138.1547167562613</v>
+        <v>234.2623458040952</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>41.68033405530676</v>
+        <v>70.67534905030274</v>
       </c>
       <c r="C4">
-        <v>2.547294626344343</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="D4">
-        <v>10.81311486933076</v>
+        <v>18.33528173495215</v>
       </c>
       <c r="E4">
-        <v>16.91757708199768</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="F4">
-        <v>15.53619022302049</v>
+        <v>26.34397472599127</v>
       </c>
       <c r="G4">
-        <v>50.61373229597497</v>
+        <v>85.82328519752278</v>
       </c>
       <c r="H4">
-        <v>1.010533106263531</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="I4">
-        <v>139.1187762582385</v>
+        <v>235.8970553944044</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>38.84702715392228</v>
+        <v>65.87104604360728</v>
       </c>
       <c r="C5">
-        <v>3.113360098865309</v>
+        <v>5.27917581981509</v>
       </c>
       <c r="D5">
-        <v>14.21152239969186</v>
+        <v>24.09779885165141</v>
       </c>
       <c r="E5">
-        <v>13.78469243718329</v>
+        <v>23.37404369783255</v>
       </c>
       <c r="F5">
-        <v>13.04696637513323</v>
+        <v>22.12311689696504</v>
       </c>
       <c r="G5">
-        <v>45.79337683921543</v>
+        <v>77.64963898823488</v>
       </c>
       <c r="H5">
-        <v>1.852644028149807</v>
+        <v>3.141439873819238</v>
       </c>
       <c r="I5">
-        <v>130.6495893321612</v>
+        <v>221.5362601719255</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>40.34902117393334</v>
+        <v>68.41790546884344</v>
       </c>
       <c r="C6">
-        <v>3.773769816806436</v>
+        <v>6.399000993715261</v>
       </c>
       <c r="D6">
-        <v>12.0488994258257</v>
+        <v>20.43074250466097</v>
       </c>
       <c r="E6">
-        <v>17.857442475442</v>
+        <v>30.28001115401034</v>
       </c>
       <c r="F6">
-        <v>15.10701369752269</v>
+        <v>25.61624061753847</v>
       </c>
       <c r="G6">
-        <v>47.51493235948669</v>
+        <v>80.56879834869484</v>
       </c>
       <c r="H6">
-        <v>2.021066212527062</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="I6">
-        <v>138.6721451615439</v>
+        <v>235.139724404357</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>39.66629661938285</v>
+        <v>67.26024209373611</v>
       </c>
       <c r="C7">
-        <v>3.019015853445148</v>
+        <v>5.119200794972208</v>
       </c>
       <c r="D7">
-        <v>14.82941467793932</v>
+        <v>25.14552923650581</v>
       </c>
       <c r="E7">
-        <v>13.47140397270186</v>
+        <v>22.84281543197271</v>
       </c>
       <c r="F7">
-        <v>16.99539040971302</v>
+        <v>28.81827069473078</v>
       </c>
       <c r="G7">
-        <v>48.54786567164945</v>
+        <v>82.32029396497082</v>
       </c>
       <c r="H7">
-        <v>1.852644028149807</v>
+        <v>3.141439873819238</v>
       </c>
       <c r="I7">
-        <v>138.3820312329814</v>
+        <v>234.6477920907077</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>41.78274273848932</v>
+        <v>70.84899855656887</v>
       </c>
       <c r="C8">
-        <v>3.302048589705631</v>
+        <v>5.599125869500852</v>
       </c>
       <c r="D8">
-        <v>10.19522259108328</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="E8">
-        <v>14.41126936614617</v>
+        <v>24.43650022955221</v>
       </c>
       <c r="F8">
-        <v>15.27868430772181</v>
+        <v>25.9073342609196</v>
       </c>
       <c r="G8">
-        <v>37.18559923785916</v>
+        <v>63.05384218593508</v>
       </c>
       <c r="H8">
-        <v>2.357910581281573</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="I8">
-        <v>124.513477412287</v>
+        <v>211.131548655617</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>57.00750030496501</v>
+        <v>96.66489182146236</v>
       </c>
       <c r="C9">
-        <v>1.886884908403218</v>
+        <v>3.199500496857631</v>
       </c>
       <c r="D9">
-        <v>20.39044518216657</v>
+        <v>34.57510270019549</v>
       </c>
       <c r="E9">
-        <v>19.42388479784919</v>
+        <v>32.93615248330951</v>
       </c>
       <c r="F9">
-        <v>16.90955510461346</v>
+        <v>28.67272387304022</v>
       </c>
       <c r="G9">
-        <v>36.1526659256964</v>
+        <v>61.30234656965913</v>
       </c>
       <c r="H9">
-        <v>1.684221843772552</v>
+        <v>2.855854430744762</v>
       </c>
       <c r="I9">
-        <v>153.4551580674664</v>
+        <v>260.2065723752691</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>69.50135965323879</v>
+        <v>117.8501315859267</v>
       </c>
       <c r="C10">
-        <v>2.547294626344343</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="D10">
-        <v>12.0488994258257</v>
+        <v>20.43074250466097</v>
       </c>
       <c r="E10">
-        <v>19.73717326233063</v>
+        <v>33.46738074916932</v>
       </c>
       <c r="F10">
-        <v>10.12856600174817</v>
+        <v>17.17452495948602</v>
       </c>
       <c r="G10">
-        <v>13.77244416217006</v>
+        <v>23.35327488367967</v>
       </c>
       <c r="H10">
-        <v>3.705288056299614</v>
+        <v>6.282879747638476</v>
       </c>
       <c r="I10">
-        <v>131.4410251879573</v>
+        <v>222.8782601013189</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>66.94114257367448</v>
+        <v>113.5088939292741</v>
       </c>
       <c r="C11">
-        <v>2.264261890083861</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="D11">
-        <v>10.19522259108328</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="E11">
-        <v>23.18334637162646</v>
+        <v>39.31089167362747</v>
       </c>
       <c r="F11">
-        <v>7.2101656283631</v>
+        <v>12.225933022007</v>
       </c>
       <c r="G11">
-        <v>8.607777601356284</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="H11">
-        <v>0.6736887375090209</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="I11">
-        <v>119.0756053936965</v>
+        <v>201.9108091458332</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>48.16621732353632</v>
+        <v>81.67315111382244</v>
       </c>
       <c r="C12">
-        <v>3.113360098865309</v>
+        <v>5.27917581981509</v>
       </c>
       <c r="D12">
-        <v>8.95943803458834</v>
+        <v>15.19209058038892</v>
       </c>
       <c r="E12">
-        <v>21.9301925137007</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="F12">
-        <v>4.549271170276717</v>
+        <v>7.713981549599653</v>
       </c>
       <c r="G12">
-        <v>11.70657753784455</v>
+        <v>19.85028365112771</v>
       </c>
       <c r="H12">
-        <v>0.3368443687545105</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I12">
-        <v>98.76190104756644</v>
+        <v>167.4658322110909</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>34.7506798266194</v>
+        <v>58.92506579296334</v>
       </c>
       <c r="C13">
-        <v>4.905900761848365</v>
+        <v>8.318701291829838</v>
       </c>
       <c r="D13">
-        <v>6.487868921598456</v>
+        <v>11.00116904097129</v>
       </c>
       <c r="E13">
-        <v>18.79730786888631</v>
+        <v>31.87369595158984</v>
       </c>
       <c r="F13">
-        <v>3.690918119281111</v>
+        <v>6.258513332694057</v>
       </c>
       <c r="G13">
-        <v>12.0508886418988</v>
+        <v>20.43411552321971</v>
       </c>
       <c r="H13">
-        <v>0.842110921886276</v>
+        <v>1.427927215372381</v>
       </c>
       <c r="I13">
-        <v>81.52567506201871</v>
+        <v>138.2391881486405</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>26.04594175610077</v>
+        <v>44.16485776034481</v>
       </c>
       <c r="C14">
-        <v>2.830327362604826</v>
+        <v>4.799250745286445</v>
       </c>
       <c r="D14">
-        <v>3.398407530361095</v>
+        <v>5.76251711669925</v>
       </c>
       <c r="E14">
-        <v>18.48401940440487</v>
+        <v>31.34246768573</v>
       </c>
       <c r="F14">
-        <v>2.31755323768814</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="G14">
-        <v>6.197599872976525</v>
+        <v>10.50897369765585</v>
       </c>
       <c r="H14">
-        <v>0.842110921886276</v>
+        <v>1.427927215372381</v>
       </c>
       <c r="I14">
-        <v>60.1159600860225</v>
+        <v>101.9357584067338</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>16.41952553693903</v>
+        <v>27.84180417133139</v>
       </c>
       <c r="C15">
-        <v>3.773769816806436</v>
+        <v>6.399000993715261</v>
       </c>
       <c r="D15">
-        <v>3.398407530361095</v>
+        <v>5.76251711669925</v>
       </c>
       <c r="E15">
-        <v>10.33851932788747</v>
+        <v>17.53053277337441</v>
       </c>
       <c r="F15">
-        <v>2.060047322389457</v>
+        <v>3.493123720573428</v>
       </c>
       <c r="G15">
-        <v>4.476044352705269</v>
+        <v>7.589814337195892</v>
       </c>
       <c r="H15">
-        <v>0.3368443687545105</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I15">
-        <v>40.80315825584327</v>
+        <v>69.18796399903857</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>9.660552446889284</v>
+        <v>16.38093675776878</v>
       </c>
       <c r="C16">
-        <v>2.169917644663701</v>
+        <v>3.679425571386274</v>
       </c>
       <c r="D16">
-        <v>1.235784556494944</v>
+        <v>2.095460769708817</v>
       </c>
       <c r="E16">
-        <v>4.699326967221578</v>
+        <v>7.968423987897459</v>
       </c>
       <c r="F16">
-        <v>1.888376712190336</v>
+        <v>3.202030077192309</v>
       </c>
       <c r="G16">
-        <v>7.57484428919353</v>
+        <v>12.84430118602382</v>
       </c>
       <c r="H16">
-        <v>0.3368443687545105</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I16">
-        <v>27.56564698540788</v>
+        <v>46.74174923612642</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>5.837294941406597</v>
+        <v>9.898021857167707</v>
       </c>
       <c r="C17">
-        <v>1.603852172142735</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="D17">
-        <v>0.3089461391237359</v>
+        <v>0.5238651924272043</v>
       </c>
       <c r="E17">
-        <v>1.879730786888631</v>
+        <v>3.187369595158982</v>
       </c>
       <c r="F17">
-        <v>2.746729763185943</v>
+        <v>4.657498294097903</v>
       </c>
       <c r="G17">
-        <v>7.230533185139279</v>
+        <v>12.26046931393182</v>
       </c>
       <c r="H17">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I17">
-        <v>19.77550917226418</v>
+        <v>33.53238511818708</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>4.369437149123068</v>
+        <v>7.409045600686938</v>
       </c>
       <c r="C18">
-        <v>2.452950380924182</v>
+        <v>4.159350645914919</v>
       </c>
       <c r="D18">
-        <v>0.6178922782474718</v>
+        <v>1.047730384854409</v>
       </c>
       <c r="E18">
-        <v>0.6265769289628772</v>
+        <v>1.062456531719661</v>
       </c>
       <c r="F18">
-        <v>2.31755323768814</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="G18">
-        <v>5.164666560813774</v>
+        <v>8.757478081379874</v>
       </c>
       <c r="I18">
-        <v>15.54907653575951</v>
+        <v>26.36582543020091</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>2.560217079564298</v>
+        <v>4.341237656652502</v>
       </c>
       <c r="C19">
-        <v>1.132130945041931</v>
+        <v>1.919700298114578</v>
       </c>
       <c r="D19">
-        <v>0.9268384173712075</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="E19">
-        <v>0.3132884644814386</v>
+        <v>0.5312282658598305</v>
       </c>
       <c r="F19">
-        <v>1.802541407090775</v>
+        <v>3.05648325550175</v>
       </c>
       <c r="G19">
-        <v>7.57484428919353</v>
+        <v>12.84430118602382</v>
       </c>
       <c r="I19">
-        <v>14.30986060274318</v>
+        <v>24.26454623943409</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>3.481895228207444</v>
+        <v>5.904083213047406</v>
       </c>
       <c r="C20">
-        <v>0.8490982087814478</v>
+        <v>1.439775223585933</v>
       </c>
       <c r="D20">
-        <v>0.9268384173712075</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="E20">
-        <v>2.506307715851509</v>
+        <v>4.249826126878644</v>
       </c>
       <c r="F20">
-        <v>1.716706101991215</v>
+        <v>2.91093643381119</v>
       </c>
       <c r="G20">
-        <v>4.131733248651016</v>
+        <v>7.005982465103898</v>
       </c>
       <c r="I20">
-        <v>13.61257892085384</v>
+        <v>23.08219903970869</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>6.997926684142413</v>
+        <v>11.86604959485017</v>
       </c>
       <c r="C21">
-        <v>1.320819435882252</v>
+        <v>2.239650347800341</v>
       </c>
       <c r="D21">
-        <v>0.9268384173712075</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="E21">
-        <v>1.566442322407192</v>
+        <v>2.656141329299152</v>
       </c>
       <c r="F21">
-        <v>2.31755323768814</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="G21">
-        <v>8.607777601356284</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="H21">
-        <v>0.5052665531317655</v>
+        <v>0.8567563292234285</v>
       </c>
       <c r="I21">
-        <v>22.24262425197925</v>
+        <v>37.71575416639961</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>20.75482645833458</v>
+        <v>35.19296660326297</v>
       </c>
       <c r="C22">
-        <v>1.698196417562896</v>
+        <v>2.879550447171867</v>
       </c>
       <c r="D22">
-        <v>5.869976643350982</v>
+        <v>9.953438656116884</v>
       </c>
       <c r="E22">
-        <v>6.892346218591646</v>
+        <v>11.68702184891627</v>
       </c>
       <c r="F22">
-        <v>5.321788916172764</v>
+        <v>9.023902944814688</v>
       </c>
       <c r="G22">
-        <v>16.52693299460406</v>
+        <v>28.02392986041559</v>
       </c>
       <c r="H22">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I22">
-        <v>57.23248983299418</v>
+        <v>97.04639580377275</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>35.22858701480472</v>
+        <v>59.73543015553847</v>
       </c>
       <c r="C23">
-        <v>1.226475190462091</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="D23">
-        <v>8.032599617217134</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="E23">
-        <v>18.48401940440487</v>
+        <v>31.34246768573</v>
       </c>
       <c r="F23">
-        <v>7.296000933462662</v>
+        <v>12.37147984369756</v>
       </c>
       <c r="G23">
-        <v>22.7245328675806</v>
+        <v>38.53290355807145</v>
       </c>
       <c r="H23">
-        <v>2.021066212527062</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="I23">
-        <v>95.01328124045912</v>
+        <v>161.109476885996</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>55.33482514631635</v>
+        <v>93.82861655244939</v>
       </c>
       <c r="C24">
-        <v>1.226475190462091</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="D24">
-        <v>8.032599617217134</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="E24">
-        <v>23.18334637162646</v>
+        <v>39.31089167362747</v>
       </c>
       <c r="F24">
-        <v>10.90108374764421</v>
+        <v>18.48444635470106</v>
       </c>
       <c r="G24">
-        <v>25.82333280406887</v>
+        <v>43.78739040689937</v>
       </c>
       <c r="H24">
-        <v>3.536865871922359</v>
+        <v>5.997294304564</v>
       </c>
       <c r="I24">
-        <v>128.0385287492575</v>
+        <v>217.108809618306</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>53.79869489857775</v>
+        <v>91.22387395845793</v>
       </c>
       <c r="C25">
-        <v>2.075573399243539</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="D25">
-        <v>8.650491895464608</v>
+        <v>14.66822538796172</v>
       </c>
       <c r="E25">
-        <v>21.9301925137007</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="F25">
-        <v>9.098542340553434</v>
+        <v>15.42796309919931</v>
       </c>
       <c r="G25">
-        <v>30.98799936488263</v>
+        <v>52.54486848827925</v>
       </c>
       <c r="H25">
-        <v>0.6736887375090209</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="I25">
-        <v>127.2151831499317</v>
+        <v>215.7127018629276</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>51.81879369038134</v>
+        <v>87.86665017064665</v>
       </c>
       <c r="C26">
-        <v>2.264261890083861</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="D26">
-        <v>13.28468398232064</v>
+        <v>22.52620327436979</v>
       </c>
       <c r="E26">
-        <v>16.91757708199768</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="F26">
-        <v>18.11124937600731</v>
+        <v>30.71037937670806</v>
       </c>
       <c r="G26">
-        <v>72.99395405950128</v>
+        <v>123.7723568835022</v>
       </c>
       <c r="H26">
-        <v>2.863177134413339</v>
+        <v>4.854952532266095</v>
       </c>
       <c r="I26">
-        <v>178.2536972147055</v>
+        <v>302.2562691901528</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>42.29478615440218</v>
+        <v>71.71724608789937</v>
       </c>
       <c r="C27">
-        <v>2.547294626344343</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="D27">
-        <v>8.650491895464608</v>
+        <v>14.66822538796172</v>
       </c>
       <c r="E27">
-        <v>16.60428861751624</v>
+        <v>28.15509809057102</v>
       </c>
       <c r="F27">
-        <v>17.51040224031038</v>
+        <v>29.69155162487414</v>
       </c>
       <c r="G27">
-        <v>63.00893204192801</v>
+        <v>106.8412325928345</v>
       </c>
       <c r="H27">
-        <v>2.189488396904317</v>
+        <v>3.712610759968191</v>
       </c>
       <c r="I27">
-        <v>152.8056839728701</v>
+        <v>259.1052902148667</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>45.43531910533437</v>
+        <v>77.04249761339307</v>
       </c>
       <c r="C28">
-        <v>4.528523780167722</v>
+        <v>7.678801192458312</v>
       </c>
       <c r="D28">
-        <v>12.97573784319691</v>
+        <v>22.00233808194258</v>
       </c>
       <c r="E28">
-        <v>18.48401940440487</v>
+        <v>31.34246768573</v>
       </c>
       <c r="F28">
-        <v>13.04696637513323</v>
+        <v>22.12311689696504</v>
       </c>
       <c r="G28">
-        <v>56.12270996084299</v>
+        <v>95.16459515099466</v>
       </c>
       <c r="H28">
-        <v>1.515799659395296</v>
+        <v>2.570268987670286</v>
       </c>
       <c r="I28">
-        <v>152.1090761284754</v>
+        <v>257.9240856091539</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>41.06588195621133</v>
+        <v>69.63345201270613</v>
       </c>
       <c r="C29">
-        <v>2.169917644663701</v>
+        <v>3.679425571386274</v>
       </c>
       <c r="D29">
-        <v>11.73995328670196</v>
+        <v>19.90687731223377</v>
       </c>
       <c r="E29">
-        <v>20.05046172681207</v>
+        <v>33.99860901502915</v>
       </c>
       <c r="F29">
-        <v>11.50193088334114</v>
+        <v>19.50327410653497</v>
       </c>
       <c r="G29">
-        <v>35.4640437175879</v>
+        <v>60.13468282547513</v>
       </c>
       <c r="H29">
-        <v>0.3368443687545105</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I29">
-        <v>122.3290335840726</v>
+        <v>207.4274917295144</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>43.11405561986274</v>
+        <v>73.10644213802814</v>
       </c>
       <c r="C30">
-        <v>2.358606135504022</v>
+        <v>3.999375621072037</v>
       </c>
       <c r="D30">
-        <v>11.12206100845449</v>
+        <v>18.85914692737936</v>
       </c>
       <c r="E30">
-        <v>16.60428861751624</v>
+        <v>28.15509809057102</v>
       </c>
       <c r="F30">
-        <v>17.68207285050951</v>
+        <v>29.98264526825525</v>
       </c>
       <c r="G30">
-        <v>43.38319911083569</v>
+        <v>73.56281588359094</v>
       </c>
       <c r="H30">
-        <v>1.347377475018042</v>
+        <v>2.28468354459581</v>
       </c>
       <c r="I30">
-        <v>135.6116608177007</v>
+        <v>229.9502074734926</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>44.06986999623341</v>
+        <v>74.72717086317843</v>
       </c>
       <c r="C31">
-        <v>2.358606135504022</v>
+        <v>3.999375621072037</v>
       </c>
       <c r="D31">
-        <v>11.73995328670196</v>
+        <v>19.90687731223377</v>
       </c>
       <c r="E31">
-        <v>17.54415401096056</v>
+        <v>29.74878288815052</v>
       </c>
       <c r="F31">
-        <v>14.07699003632796</v>
+        <v>23.86967875725176</v>
       </c>
       <c r="G31">
-        <v>40.28439917434742</v>
+        <v>68.30832903476305</v>
       </c>
       <c r="H31">
-        <v>3.368443687545104</v>
+        <v>5.711708861489523</v>
       </c>
       <c r="I31">
-        <v>133.4424163276204</v>
+        <v>226.2719233381391</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>51.85292991810889</v>
+        <v>87.92453333940202</v>
       </c>
       <c r="C32">
-        <v>2.547294626344343</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="D32">
-        <v>7.41470733896966</v>
+        <v>12.57276461825291</v>
       </c>
       <c r="E32">
-        <v>19.11059633336775</v>
+        <v>32.40492421744965</v>
       </c>
       <c r="F32">
-        <v>16.65204918931478</v>
+        <v>28.23608340796854</v>
       </c>
       <c r="G32">
-        <v>37.87422144596767</v>
+        <v>64.22150593011909</v>
       </c>
       <c r="H32">
-        <v>2.357910581281573</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="I32">
-        <v>137.8097094333547</v>
+        <v>233.6773333869927</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>57.00750030496501</v>
+        <v>96.66489182146236</v>
       </c>
       <c r="C33">
-        <v>1.886884908403218</v>
+        <v>3.199500496857631</v>
       </c>
       <c r="D33">
-        <v>20.39044518216657</v>
+        <v>34.57510270019549</v>
       </c>
       <c r="E33">
-        <v>19.42388479784919</v>
+        <v>32.93615248330951</v>
       </c>
       <c r="F33">
-        <v>16.90955510461346</v>
+        <v>28.67272387304022</v>
       </c>
       <c r="G33">
-        <v>36.1526659256964</v>
+        <v>61.30234656965913</v>
       </c>
       <c r="H33">
-        <v>1.684221843772552</v>
+        <v>2.855854430744762</v>
       </c>
       <c r="I33">
-        <v>153.4551580674664</v>
+        <v>260.2065723752691</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>69.50135965323879</v>
+        <v>117.8501315859267</v>
       </c>
       <c r="C34">
-        <v>2.547294626344343</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="D34">
-        <v>12.0488994258257</v>
+        <v>20.43074250466097</v>
       </c>
       <c r="E34">
-        <v>19.73717326233063</v>
+        <v>33.46738074916932</v>
       </c>
       <c r="F34">
-        <v>10.12856600174817</v>
+        <v>17.17452495948602</v>
       </c>
       <c r="G34">
-        <v>13.77244416217006</v>
+        <v>23.35327488367967</v>
       </c>
       <c r="H34">
-        <v>3.705288056299614</v>
+        <v>6.282879747638476</v>
       </c>
       <c r="I34">
-        <v>131.4410251879573</v>
+        <v>222.8782601013189</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>66.94114257367448</v>
+        <v>113.5088939292741</v>
       </c>
       <c r="C35">
-        <v>2.264261890083861</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="D35">
-        <v>10.19522259108328</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="E35">
-        <v>23.18334637162646</v>
+        <v>39.31089167362747</v>
       </c>
       <c r="F35">
-        <v>7.2101656283631</v>
+        <v>12.225933022007</v>
       </c>
       <c r="G35">
-        <v>8.607777601356284</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="H35">
-        <v>0.6736887375090209</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="I35">
-        <v>119.0756053936965</v>
+        <v>201.9108091458332</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>48.16621732353632</v>
+        <v>81.67315111382244</v>
       </c>
       <c r="C36">
-        <v>3.113360098865309</v>
+        <v>5.27917581981509</v>
       </c>
       <c r="D36">
-        <v>8.95943803458834</v>
+        <v>15.19209058038892</v>
       </c>
       <c r="E36">
-        <v>21.9301925137007</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="F36">
-        <v>4.549271170276717</v>
+        <v>7.713981549599653</v>
       </c>
       <c r="G36">
-        <v>11.70657753784455</v>
+        <v>19.85028365112771</v>
       </c>
       <c r="H36">
-        <v>0.3368443687545105</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I36">
-        <v>98.76190104756644</v>
+        <v>167.4658322110909</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>34.7506798266194</v>
+        <v>58.92506579296334</v>
       </c>
       <c r="C37">
-        <v>4.905900761848365</v>
+        <v>8.318701291829838</v>
       </c>
       <c r="D37">
-        <v>6.487868921598456</v>
+        <v>11.00116904097129</v>
       </c>
       <c r="E37">
-        <v>18.79730786888631</v>
+        <v>31.87369595158984</v>
       </c>
       <c r="F37">
-        <v>3.690918119281111</v>
+        <v>6.258513332694057</v>
       </c>
       <c r="G37">
-        <v>12.0508886418988</v>
+        <v>20.43411552321971</v>
       </c>
       <c r="H37">
-        <v>0.842110921886276</v>
+        <v>1.427927215372381</v>
       </c>
       <c r="I37">
-        <v>81.52567506201871</v>
+        <v>138.2391881486405</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>26.04594175610077</v>
+        <v>44.16485776034481</v>
       </c>
       <c r="C38">
-        <v>2.830327362604826</v>
+        <v>4.799250745286445</v>
       </c>
       <c r="D38">
-        <v>3.398407530361095</v>
+        <v>5.76251711669925</v>
       </c>
       <c r="E38">
-        <v>18.48401940440487</v>
+        <v>31.34246768573</v>
       </c>
       <c r="F38">
-        <v>2.31755323768814</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="G38">
-        <v>6.197599872976525</v>
+        <v>10.50897369765585</v>
       </c>
       <c r="H38">
-        <v>0.842110921886276</v>
+        <v>1.427927215372381</v>
       </c>
       <c r="I38">
-        <v>60.1159600860225</v>
+        <v>101.9357584067338</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>16.41952553693903</v>
+        <v>27.84180417133139</v>
       </c>
       <c r="C39">
-        <v>3.773769816806436</v>
+        <v>6.399000993715261</v>
       </c>
       <c r="D39">
-        <v>3.398407530361095</v>
+        <v>5.76251711669925</v>
       </c>
       <c r="E39">
-        <v>10.33851932788747</v>
+        <v>17.53053277337441</v>
       </c>
       <c r="F39">
-        <v>2.060047322389457</v>
+        <v>3.493123720573428</v>
       </c>
       <c r="G39">
-        <v>4.476044352705269</v>
+        <v>7.589814337195892</v>
       </c>
       <c r="H39">
-        <v>0.3368443687545105</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I39">
-        <v>40.80315825584327</v>
+        <v>69.18796399903857</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>9.660552446889284</v>
+        <v>16.38093675776878</v>
       </c>
       <c r="C40">
-        <v>2.169917644663701</v>
+        <v>3.679425571386274</v>
       </c>
       <c r="D40">
-        <v>1.235784556494944</v>
+        <v>2.095460769708817</v>
       </c>
       <c r="E40">
-        <v>4.699326967221578</v>
+        <v>7.968423987897459</v>
       </c>
       <c r="F40">
-        <v>1.888376712190336</v>
+        <v>3.202030077192309</v>
       </c>
       <c r="G40">
-        <v>7.57484428919353</v>
+        <v>12.84430118602382</v>
       </c>
       <c r="H40">
-        <v>0.3368443687545105</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I40">
-        <v>27.56564698540788</v>
+        <v>46.74174923612642</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>5.837294941406597</v>
+        <v>9.898021857167707</v>
       </c>
       <c r="C41">
-        <v>1.603852172142735</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="D41">
-        <v>0.3089461391237359</v>
+        <v>0.5238651924272043</v>
       </c>
       <c r="E41">
-        <v>1.879730786888631</v>
+        <v>3.187369595158982</v>
       </c>
       <c r="F41">
-        <v>2.746729763185943</v>
+        <v>4.657498294097903</v>
       </c>
       <c r="G41">
-        <v>7.230533185139279</v>
+        <v>12.26046931393182</v>
       </c>
       <c r="H41">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I41">
-        <v>19.77550917226418</v>
+        <v>33.53238511818708</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>4.369437149123068</v>
+        <v>7.409045600686938</v>
       </c>
       <c r="C42">
-        <v>2.452950380924182</v>
+        <v>4.159350645914919</v>
       </c>
       <c r="D42">
-        <v>0.6178922782474718</v>
+        <v>1.047730384854409</v>
       </c>
       <c r="E42">
-        <v>0.6265769289628772</v>
+        <v>1.062456531719661</v>
       </c>
       <c r="F42">
-        <v>2.31755323768814</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="G42">
-        <v>5.164666560813774</v>
+        <v>8.757478081379874</v>
       </c>
       <c r="I42">
-        <v>15.54907653575951</v>
+        <v>26.36582543020091</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>2.560217079564298</v>
+        <v>4.341237656652502</v>
       </c>
       <c r="C43">
-        <v>1.132130945041931</v>
+        <v>1.919700298114578</v>
       </c>
       <c r="D43">
-        <v>0.9268384173712075</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="E43">
-        <v>0.3132884644814386</v>
+        <v>0.5312282658598305</v>
       </c>
       <c r="F43">
-        <v>1.802541407090775</v>
+        <v>3.05648325550175</v>
       </c>
       <c r="G43">
-        <v>7.57484428919353</v>
+        <v>12.84430118602382</v>
       </c>
       <c r="I43">
-        <v>14.30986060274318</v>
+        <v>24.26454623943409</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>3.481895228207444</v>
+        <v>5.904083213047406</v>
       </c>
       <c r="C44">
-        <v>0.8490982087814478</v>
+        <v>1.439775223585933</v>
       </c>
       <c r="D44">
-        <v>0.9268384173712075</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="E44">
-        <v>2.506307715851509</v>
+        <v>4.249826126878644</v>
       </c>
       <c r="F44">
-        <v>1.716706101991215</v>
+        <v>2.91093643381119</v>
       </c>
       <c r="G44">
-        <v>4.131733248651016</v>
+        <v>7.005982465103898</v>
       </c>
       <c r="I44">
-        <v>13.61257892085384</v>
+        <v>23.08219903970869</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>6.997926684142413</v>
+        <v>11.86604959485017</v>
       </c>
       <c r="C45">
-        <v>1.320819435882252</v>
+        <v>2.239650347800341</v>
       </c>
       <c r="D45">
-        <v>0.9268384173712075</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="E45">
-        <v>1.566442322407192</v>
+        <v>2.656141329299152</v>
       </c>
       <c r="F45">
-        <v>2.31755323768814</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="G45">
-        <v>8.607777601356284</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="H45">
-        <v>0.5052665531317655</v>
+        <v>0.8567563292234285</v>
       </c>
       <c r="I45">
-        <v>22.24262425197925</v>
+        <v>37.71575416639961</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>20.75482645833458</v>
+        <v>35.19296660326297</v>
       </c>
       <c r="C46">
-        <v>1.698196417562896</v>
+        <v>2.879550447171867</v>
       </c>
       <c r="D46">
-        <v>5.869976643350982</v>
+        <v>9.953438656116884</v>
       </c>
       <c r="E46">
-        <v>6.892346218591646</v>
+        <v>11.68702184891627</v>
       </c>
       <c r="F46">
-        <v>5.321788916172764</v>
+        <v>9.023902944814688</v>
       </c>
       <c r="G46">
-        <v>16.52693299460406</v>
+        <v>28.02392986041559</v>
       </c>
       <c r="H46">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I46">
-        <v>57.23248983299418</v>
+        <v>97.04639580377275</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>35.22858701480472</v>
+        <v>59.73543015553847</v>
       </c>
       <c r="C47">
-        <v>1.226475190462091</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="D47">
-        <v>8.032599617217134</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="E47">
-        <v>18.48401940440487</v>
+        <v>31.34246768573</v>
       </c>
       <c r="F47">
-        <v>7.296000933462662</v>
+        <v>12.37147984369756</v>
       </c>
       <c r="G47">
-        <v>22.7245328675806</v>
+        <v>38.53290355807145</v>
       </c>
       <c r="H47">
-        <v>2.021066212527062</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="I47">
-        <v>95.01328124045912</v>
+        <v>161.109476885996</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>55.33482514631635</v>
+        <v>93.82861655244939</v>
       </c>
       <c r="C48">
-        <v>1.226475190462091</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="D48">
-        <v>8.032599617217134</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="E48">
-        <v>23.18334637162646</v>
+        <v>39.31089167362747</v>
       </c>
       <c r="F48">
-        <v>10.90108374764421</v>
+        <v>18.48444635470106</v>
       </c>
       <c r="G48">
-        <v>25.82333280406887</v>
+        <v>43.78739040689937</v>
       </c>
       <c r="H48">
-        <v>3.536865871922359</v>
+        <v>5.997294304564</v>
       </c>
       <c r="I48">
-        <v>128.0385287492575</v>
+        <v>217.108809618306</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>53.79869489857775</v>
+        <v>91.22387395845793</v>
       </c>
       <c r="C49">
-        <v>2.075573399243539</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="D49">
-        <v>8.650491895464608</v>
+        <v>14.66822538796172</v>
       </c>
       <c r="E49">
-        <v>21.9301925137007</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="F49">
-        <v>9.098542340553434</v>
+        <v>15.42796309919931</v>
       </c>
       <c r="G49">
-        <v>30.98799936488263</v>
+        <v>52.54486848827925</v>
       </c>
       <c r="H49">
-        <v>0.6736887375090209</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="I49">
-        <v>127.2151831499317</v>
+        <v>215.7127018629276</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>87.86665017064665</v>
+        <v>51.69126589622949</v>
       </c>
       <c r="C2">
-        <v>3.839400596229156</v>
+        <v>2.258689465415894</v>
       </c>
       <c r="D2">
-        <v>22.52620327436979</v>
+        <v>13.25198992822141</v>
       </c>
       <c r="E2">
-        <v>28.68632635643085</v>
+        <v>16.87594235579096</v>
       </c>
       <c r="F2">
-        <v>30.71037937670806</v>
+        <v>18.06667698213692</v>
       </c>
       <c r="G2">
-        <v>123.7723568835022</v>
+        <v>72.81431348347299</v>
       </c>
       <c r="H2">
-        <v>4.854952532266095</v>
+        <v>2.856130759185085</v>
       </c>
       <c r="I2">
-        <v>302.2562691901528</v>
+        <v>177.8150088704527</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>65.35009752480902</v>
+        <v>38.44495335760412</v>
       </c>
       <c r="C3">
-        <v>3.999375621072037</v>
+        <v>2.352801526474889</v>
       </c>
       <c r="D3">
-        <v>22.00233808194258</v>
+        <v>12.94380411593719</v>
       </c>
       <c r="E3">
-        <v>20.18667410267356</v>
+        <v>11.8756631392603</v>
       </c>
       <c r="F3">
-        <v>32.02030077192308</v>
+        <v>18.83729353587734</v>
       </c>
       <c r="G3">
-        <v>86.99094894170673</v>
+        <v>51.17609768413904</v>
       </c>
       <c r="H3">
-        <v>3.712610759968191</v>
+        <v>2.184099992318006</v>
       </c>
       <c r="I3">
-        <v>234.2623458040952</v>
+        <v>137.8147133516109</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>70.67534905030274</v>
+        <v>41.57775735131501</v>
       </c>
       <c r="C4">
-        <v>4.3193256707578</v>
+        <v>2.541025648592881</v>
       </c>
       <c r="D4">
-        <v>18.33528173495215</v>
+        <v>10.78650342994766</v>
       </c>
       <c r="E4">
-        <v>28.68632635643085</v>
+        <v>16.87594235579096</v>
       </c>
       <c r="F4">
-        <v>26.34397472599127</v>
+        <v>15.49795513633545</v>
       </c>
       <c r="G4">
-        <v>85.82328519752278</v>
+        <v>50.4891701984459</v>
       </c>
       <c r="H4">
-        <v>1.713512658446857</v>
+        <v>1.008046150300618</v>
       </c>
       <c r="I4">
-        <v>235.8970553944044</v>
+        <v>138.7764002707285</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>65.87104604360728</v>
+        <v>38.75142331351062</v>
       </c>
       <c r="C5">
-        <v>5.27917581981509</v>
+        <v>3.105698014946854</v>
       </c>
       <c r="D5">
-        <v>24.09779885165141</v>
+        <v>14.17654736507407</v>
       </c>
       <c r="E5">
-        <v>23.37404369783255</v>
+        <v>13.7507678454593</v>
       </c>
       <c r="F5">
-        <v>22.12311689696504</v>
+        <v>13.01485735206071</v>
       </c>
       <c r="G5">
-        <v>77.64963898823488</v>
+        <v>45.68067779859392</v>
       </c>
       <c r="H5">
-        <v>3.141439873819238</v>
+        <v>1.848084608884466</v>
       </c>
       <c r="I5">
-        <v>221.5362601719255</v>
+        <v>130.32805629853</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>68.41790546884344</v>
+        <v>40.24972087572019</v>
       </c>
       <c r="C6">
-        <v>6.399000993715261</v>
+        <v>3.764482442359823</v>
       </c>
       <c r="D6">
-        <v>20.43074250466097</v>
+        <v>12.01924667908454</v>
       </c>
       <c r="E6">
-        <v>30.28001115401034</v>
+        <v>17.81349470889045</v>
       </c>
       <c r="F6">
-        <v>25.61624061753847</v>
+        <v>15.06983482870187</v>
       </c>
       <c r="G6">
-        <v>80.56879834869484</v>
+        <v>47.39799651282676</v>
       </c>
       <c r="H6">
-        <v>3.427025316893714</v>
+        <v>2.016092300601236</v>
       </c>
       <c r="I6">
-        <v>235.139724404357</v>
+        <v>138.3308683481849</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>67.26024209373611</v>
+        <v>39.5686765292613</v>
       </c>
       <c r="C7">
-        <v>5.119200794972208</v>
+        <v>3.011585953887858</v>
       </c>
       <c r="D7">
-        <v>25.14552923650581</v>
+        <v>14.79291898964251</v>
       </c>
       <c r="E7">
-        <v>22.84281543197271</v>
+        <v>13.43825039442613</v>
       </c>
       <c r="F7">
-        <v>28.81827069473078</v>
+        <v>16.95356418228961</v>
       </c>
       <c r="G7">
-        <v>82.32029396497082</v>
+        <v>48.42838774136647</v>
       </c>
       <c r="H7">
-        <v>3.141439873819238</v>
+        <v>1.848084608884466</v>
       </c>
       <c r="I7">
-        <v>234.6477920907077</v>
+        <v>138.0414683997584</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>70.84899855656887</v>
+        <v>41.67991400328383</v>
       </c>
       <c r="C8">
-        <v>5.599125869500852</v>
+        <v>3.293922137064845</v>
       </c>
       <c r="D8">
-        <v>17.28755135009775</v>
+        <v>10.17013180537923</v>
       </c>
       <c r="E8">
-        <v>24.43650022955221</v>
+        <v>14.37580274752563</v>
       </c>
       <c r="F8">
-        <v>25.9073342609196</v>
+        <v>15.24108295175531</v>
       </c>
       <c r="G8">
-        <v>63.05384218593508</v>
+        <v>37.09408422742965</v>
       </c>
       <c r="H8">
-        <v>3.998196203042667</v>
+        <v>2.352107684034776</v>
       </c>
       <c r="I8">
-        <v>211.131548655617</v>
+        <v>124.2070455564733</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>96.66489182146236</v>
+        <v>56.86720292931702</v>
       </c>
       <c r="C9">
-        <v>3.199500496857631</v>
+        <v>1.882241221179911</v>
       </c>
       <c r="D9">
-        <v>34.57510270019549</v>
+        <v>20.34026361075845</v>
       </c>
       <c r="E9">
-        <v>32.93615248330951</v>
+        <v>19.37608196405628</v>
       </c>
       <c r="F9">
-        <v>28.67272387304022</v>
+        <v>16.8679401207629</v>
       </c>
       <c r="G9">
-        <v>61.30234656965913</v>
+        <v>36.06369299888993</v>
       </c>
       <c r="H9">
-        <v>2.855854430744762</v>
+        <v>1.680076917167697</v>
       </c>
       <c r="I9">
-        <v>260.2065723752691</v>
+        <v>153.0774997621322</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>117.8501315859267</v>
+        <v>69.33031446951465</v>
       </c>
       <c r="C10">
-        <v>4.3193256707578</v>
+        <v>2.541025648592881</v>
       </c>
       <c r="D10">
-        <v>20.43074250466097</v>
+        <v>12.01924667908454</v>
       </c>
       <c r="E10">
-        <v>33.46738074916932</v>
+        <v>19.68859941508945</v>
       </c>
       <c r="F10">
-        <v>17.17452495948602</v>
+        <v>10.10363926015239</v>
       </c>
       <c r="G10">
-        <v>23.35327488367967</v>
+        <v>13.73854971386283</v>
       </c>
       <c r="H10">
-        <v>6.282879747638476</v>
+        <v>3.696169217768932</v>
       </c>
       <c r="I10">
-        <v>222.8782601013189</v>
+        <v>131.1175444040657</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>113.5088939292741</v>
+        <v>66.77639817029383</v>
       </c>
       <c r="C11">
-        <v>3.839400596229156</v>
+        <v>2.258689465415894</v>
       </c>
       <c r="D11">
-        <v>17.28755135009775</v>
+        <v>10.17013180537923</v>
       </c>
       <c r="E11">
-        <v>39.31089167362747</v>
+        <v>23.12629137645428</v>
       </c>
       <c r="F11">
-        <v>12.225933022007</v>
+        <v>7.192421168244076</v>
       </c>
       <c r="G11">
-        <v>14.59579680229979</v>
+        <v>8.586593571164268</v>
       </c>
       <c r="H11">
-        <v>1.142341772297905</v>
+        <v>0.6720307668670789</v>
       </c>
       <c r="I11">
-        <v>201.9108091458332</v>
+        <v>118.7825563238187</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>81.67315111382244</v>
+        <v>48.04767864267445</v>
       </c>
       <c r="C12">
-        <v>5.27917581981509</v>
+        <v>3.105698014946854</v>
       </c>
       <c r="D12">
-        <v>15.19209058038892</v>
+        <v>8.937388556242347</v>
       </c>
       <c r="E12">
-        <v>37.18597861018814</v>
+        <v>21.87622157232161</v>
       </c>
       <c r="F12">
-        <v>7.713981549599653</v>
+        <v>4.538075260915906</v>
       </c>
       <c r="G12">
-        <v>19.85028365112771</v>
+        <v>11.67776725678341</v>
       </c>
       <c r="H12">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="I12">
-        <v>167.4658322110909</v>
+        <v>98.51884468731811</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>58.92506579296334</v>
+        <v>34.66515723475732</v>
       </c>
       <c r="C13">
-        <v>8.318701291829838</v>
+        <v>4.893827175067772</v>
       </c>
       <c r="D13">
-        <v>11.00116904097129</v>
+        <v>6.471902057968596</v>
       </c>
       <c r="E13">
-        <v>31.87369595158984</v>
+        <v>18.75104706198995</v>
       </c>
       <c r="F13">
-        <v>6.258513332694057</v>
+        <v>3.681834645648753</v>
       </c>
       <c r="G13">
-        <v>20.43411552321971</v>
+        <v>12.02123099962998</v>
       </c>
       <c r="H13">
-        <v>1.427927215372381</v>
+        <v>0.8400384585838486</v>
       </c>
       <c r="I13">
-        <v>138.2391881486405</v>
+        <v>81.32503763364622</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>44.16485776034481</v>
+        <v>25.98184181740652</v>
       </c>
       <c r="C14">
-        <v>4.799250745286445</v>
+        <v>2.823361831769867</v>
       </c>
       <c r="D14">
-        <v>5.76251711669925</v>
+        <v>3.390043935126407</v>
       </c>
       <c r="E14">
-        <v>31.34246768573</v>
+        <v>18.43852961095679</v>
       </c>
       <c r="F14">
-        <v>3.929764185645107</v>
+        <v>2.311849661221311</v>
       </c>
       <c r="G14">
-        <v>10.50897369765585</v>
+        <v>6.182347371238269</v>
       </c>
       <c r="H14">
-        <v>1.427927215372381</v>
+        <v>0.8400384585838486</v>
       </c>
       <c r="I14">
-        <v>101.9357584067338</v>
+        <v>59.96801268630301</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>27.84180417133139</v>
+        <v>16.37911653233622</v>
       </c>
       <c r="C15">
-        <v>6.399000993715261</v>
+        <v>3.764482442359823</v>
       </c>
       <c r="D15">
-        <v>5.76251711669925</v>
+        <v>3.390043935126407</v>
       </c>
       <c r="E15">
-        <v>17.53053277337441</v>
+        <v>10.31307588409447</v>
       </c>
       <c r="F15">
-        <v>3.493123720573428</v>
+        <v>2.054977476641165</v>
       </c>
       <c r="G15">
-        <v>7.589814337195892</v>
+        <v>4.46502865700542</v>
       </c>
       <c r="H15">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="I15">
-        <v>69.18796399903857</v>
+        <v>40.70274031099704</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>16.38093675776878</v>
+        <v>9.636777502393244</v>
       </c>
       <c r="C16">
-        <v>3.679425571386274</v>
+        <v>2.164577404356899</v>
       </c>
       <c r="D16">
-        <v>2.095460769708817</v>
+        <v>1.232743249136876</v>
       </c>
       <c r="E16">
-        <v>7.968423987897459</v>
+        <v>4.687761765497489</v>
       </c>
       <c r="F16">
-        <v>3.202030077192309</v>
+        <v>1.883729353587734</v>
       </c>
       <c r="G16">
-        <v>12.84430118602382</v>
+        <v>7.556202342624556</v>
       </c>
       <c r="H16">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="I16">
-        <v>46.74174923612642</v>
+        <v>27.49780700103034</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>9.898021857167707</v>
+        <v>5.822929162223479</v>
       </c>
       <c r="C17">
-        <v>2.719575422328985</v>
+        <v>1.599905038002925</v>
       </c>
       <c r="D17">
-        <v>0.5238651924272043</v>
+        <v>0.308185812284219</v>
       </c>
       <c r="E17">
-        <v>3.187369595158982</v>
+        <v>1.875104706198995</v>
       </c>
       <c r="F17">
-        <v>4.657498294097903</v>
+        <v>2.739969968854886</v>
       </c>
       <c r="G17">
-        <v>12.26046931393182</v>
+        <v>7.212738599777987</v>
       </c>
       <c r="H17">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I17">
-        <v>33.53238511818708</v>
+        <v>19.72684097905926</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>7.409045600686938</v>
+        <v>4.358683817336872</v>
       </c>
       <c r="C18">
-        <v>4.159350645914919</v>
+        <v>2.446913587533886</v>
       </c>
       <c r="D18">
-        <v>1.047730384854409</v>
+        <v>0.6163716245684381</v>
       </c>
       <c r="E18">
-        <v>1.062456531719661</v>
+        <v>0.6250349020663317</v>
       </c>
       <c r="F18">
-        <v>3.929764185645107</v>
+        <v>2.311849661221311</v>
       </c>
       <c r="G18">
-        <v>8.757478081379874</v>
+        <v>5.151956142698562</v>
       </c>
       <c r="I18">
-        <v>26.36582543020091</v>
+        <v>15.5108097354254</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>4.341237656652502</v>
+        <v>2.553916299220825</v>
       </c>
       <c r="C19">
-        <v>1.919700298114578</v>
+        <v>1.129344732707947</v>
       </c>
       <c r="D19">
-        <v>1.571595577281613</v>
+        <v>0.9245574368526567</v>
       </c>
       <c r="E19">
-        <v>0.5312282658598305</v>
+        <v>0.3125174510331659</v>
       </c>
       <c r="F19">
-        <v>3.05648325550175</v>
+        <v>1.798105292061019</v>
       </c>
       <c r="G19">
-        <v>12.84430118602382</v>
+        <v>7.556202342624556</v>
       </c>
       <c r="I19">
-        <v>24.26454623943409</v>
+        <v>14.27464355450017</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>5.904083213047406</v>
+        <v>3.473326166940321</v>
       </c>
       <c r="C20">
-        <v>1.439775223585933</v>
+        <v>0.8470085495309601</v>
       </c>
       <c r="D20">
-        <v>1.571595577281613</v>
+        <v>0.9245574368526567</v>
       </c>
       <c r="E20">
-        <v>4.249826126878644</v>
+        <v>2.500139608265327</v>
       </c>
       <c r="F20">
-        <v>2.91093643381119</v>
+        <v>1.712481230534304</v>
       </c>
       <c r="G20">
-        <v>7.005982465103898</v>
+        <v>4.121564914158848</v>
       </c>
       <c r="I20">
-        <v>23.08219903970869</v>
+        <v>13.57907790628242</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>11.86604959485017</v>
+        <v>6.980704551203585</v>
       </c>
       <c r="C21">
-        <v>2.239650347800341</v>
+        <v>1.317568854825939</v>
       </c>
       <c r="D21">
-        <v>1.571595577281613</v>
+        <v>0.9245574368526567</v>
       </c>
       <c r="E21">
-        <v>2.656141329299152</v>
+        <v>1.56258725516583</v>
       </c>
       <c r="F21">
-        <v>3.929764185645107</v>
+        <v>2.311849661221311</v>
       </c>
       <c r="G21">
-        <v>14.59579680229979</v>
+        <v>8.586593571164268</v>
       </c>
       <c r="H21">
-        <v>0.8567563292234285</v>
+        <v>0.5040230751503091</v>
       </c>
       <c r="I21">
-        <v>37.71575416639961</v>
+        <v>22.18788440558389</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>35.19296660326297</v>
+        <v>20.70374813235015</v>
       </c>
       <c r="C22">
-        <v>2.879550447171867</v>
+        <v>1.69401709906192</v>
       </c>
       <c r="D22">
-        <v>9.953438656116884</v>
+        <v>5.855530433400159</v>
       </c>
       <c r="E22">
-        <v>11.68702184891627</v>
+        <v>6.875383922729651</v>
       </c>
       <c r="F22">
-        <v>9.023902944814688</v>
+        <v>5.308691814656343</v>
       </c>
       <c r="G22">
-        <v>28.02392986041559</v>
+        <v>16.48625965663539</v>
       </c>
       <c r="H22">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I22">
-        <v>97.04639580377275</v>
+        <v>57.09163875055039</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>59.73543015553847</v>
+        <v>35.14188827727855</v>
       </c>
       <c r="C23">
-        <v>2.079675322957459</v>
+        <v>1.223456793766943</v>
       </c>
       <c r="D23">
-        <v>13.62049500310732</v>
+        <v>8.012831119389693</v>
       </c>
       <c r="E23">
-        <v>31.34246768573</v>
+        <v>18.43852961095679</v>
       </c>
       <c r="F23">
-        <v>12.37147984369756</v>
+        <v>7.278045229770792</v>
       </c>
       <c r="G23">
-        <v>38.53290355807145</v>
+        <v>22.66860702787367</v>
       </c>
       <c r="H23">
-        <v>3.427025316893714</v>
+        <v>2.016092300601236</v>
       </c>
       <c r="I23">
-        <v>161.109476885996</v>
+        <v>94.77945035963766</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>93.82861655244939</v>
+        <v>55.19864428049274</v>
       </c>
       <c r="C24">
-        <v>2.079675322957459</v>
+        <v>1.223456793766943</v>
       </c>
       <c r="D24">
-        <v>13.62049500310732</v>
+        <v>8.012831119389693</v>
       </c>
       <c r="E24">
-        <v>39.31089167362747</v>
+        <v>23.12629137645428</v>
       </c>
       <c r="F24">
-        <v>18.48444635470106</v>
+        <v>10.87425581389283</v>
       </c>
       <c r="G24">
-        <v>43.78739040689937</v>
+        <v>25.75978071349281</v>
       </c>
       <c r="H24">
-        <v>5.997294304564</v>
+        <v>3.528161526052164</v>
       </c>
       <c r="I24">
-        <v>217.108809618306</v>
+        <v>127.7234216235414</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>91.22387395845793</v>
+        <v>53.6662945009603</v>
       </c>
       <c r="C25">
-        <v>3.519450546543392</v>
+        <v>2.070465343297903</v>
       </c>
       <c r="D25">
-        <v>14.66822538796172</v>
+        <v>8.62920274395813</v>
       </c>
       <c r="E25">
-        <v>37.18597861018814</v>
+        <v>21.87622157232161</v>
       </c>
       <c r="F25">
-        <v>15.42796309919931</v>
+        <v>9.076150521831812</v>
       </c>
       <c r="G25">
-        <v>52.54486848827925</v>
+        <v>30.91173685619138</v>
       </c>
       <c r="H25">
-        <v>1.142341772297905</v>
+        <v>0.6720307668670789</v>
       </c>
       <c r="I25">
-        <v>215.7127018629276</v>
+        <v>126.9021023054282</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>87.86665017064665</v>
+        <v>51.69126589622949</v>
       </c>
       <c r="C26">
-        <v>3.839400596229156</v>
+        <v>2.258689465415894</v>
       </c>
       <c r="D26">
-        <v>22.52620327436979</v>
+        <v>13.25198992822141</v>
       </c>
       <c r="E26">
-        <v>28.68632635643085</v>
+        <v>16.87594235579096</v>
       </c>
       <c r="F26">
-        <v>30.71037937670806</v>
+        <v>18.06667698213692</v>
       </c>
       <c r="G26">
-        <v>123.7723568835022</v>
+        <v>72.81431348347299</v>
       </c>
       <c r="H26">
-        <v>4.854952532266095</v>
+        <v>2.856130759185085</v>
       </c>
       <c r="I26">
-        <v>302.2562691901528</v>
+        <v>177.8150088704527</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>71.71724608789937</v>
+        <v>42.19069726312802</v>
       </c>
       <c r="C27">
-        <v>4.3193256707578</v>
+        <v>2.541025648592881</v>
       </c>
       <c r="D27">
-        <v>14.66822538796172</v>
+        <v>8.62920274395813</v>
       </c>
       <c r="E27">
-        <v>28.15509809057102</v>
+        <v>16.56342490475778</v>
       </c>
       <c r="F27">
-        <v>29.69155162487414</v>
+        <v>17.4673085514499</v>
       </c>
       <c r="G27">
-        <v>106.8412325928345</v>
+        <v>62.85386494092245</v>
       </c>
       <c r="H27">
-        <v>3.712610759968191</v>
+        <v>2.184099992318006</v>
       </c>
       <c r="I27">
-        <v>259.1052902148667</v>
+        <v>152.4296240451272</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>77.04249761339307</v>
+        <v>45.3235012568389</v>
       </c>
       <c r="C28">
-        <v>7.678801192458312</v>
+        <v>4.517378930831788</v>
       </c>
       <c r="D28">
-        <v>22.00233808194258</v>
+        <v>12.94380411593719</v>
       </c>
       <c r="E28">
-        <v>31.34246768573</v>
+        <v>18.43852961095679</v>
       </c>
       <c r="F28">
-        <v>22.12311689696504</v>
+        <v>13.01485735206071</v>
       </c>
       <c r="G28">
-        <v>95.16459515099466</v>
+        <v>55.98459008399104</v>
       </c>
       <c r="H28">
-        <v>2.570268987670286</v>
+        <v>1.512069225450927</v>
       </c>
       <c r="I28">
-        <v>257.9240856091539</v>
+        <v>151.7347305760673</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>69.63345201270613</v>
+        <v>40.96481743950201</v>
       </c>
       <c r="C29">
-        <v>3.679425571386274</v>
+        <v>2.164577404356899</v>
       </c>
       <c r="D29">
-        <v>19.90687731223377</v>
+        <v>11.71106086680032</v>
       </c>
       <c r="E29">
-        <v>33.99860901502915</v>
+        <v>20.00111686612262</v>
       </c>
       <c r="F29">
-        <v>19.50327410653497</v>
+        <v>11.47362424457984</v>
       </c>
       <c r="G29">
-        <v>60.13468282547513</v>
+        <v>35.37676551319678</v>
       </c>
       <c r="H29">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="I29">
-        <v>207.4274917295144</v>
+        <v>122.027977717992</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>73.10644213802814</v>
+        <v>43.00795047887867</v>
       </c>
       <c r="C30">
-        <v>3.999375621072037</v>
+        <v>2.352801526474889</v>
       </c>
       <c r="D30">
-        <v>18.85914692737936</v>
+        <v>11.09468924223189</v>
       </c>
       <c r="E30">
-        <v>28.15509809057102</v>
+        <v>16.56342490475778</v>
       </c>
       <c r="F30">
-        <v>29.98264526825525</v>
+        <v>17.63855667450333</v>
       </c>
       <c r="G30">
-        <v>73.56281588359094</v>
+        <v>43.27643159866793</v>
       </c>
       <c r="H30">
-        <v>2.28468354459581</v>
+        <v>1.344061533734158</v>
       </c>
       <c r="I30">
-        <v>229.9502074734926</v>
+        <v>135.2779159592486</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>74.72717086317843</v>
+        <v>43.96141256392112</v>
       </c>
       <c r="C31">
-        <v>3.999375621072037</v>
+        <v>2.352801526474889</v>
       </c>
       <c r="D31">
-        <v>19.90687731223377</v>
+        <v>11.71106086680032</v>
       </c>
       <c r="E31">
-        <v>29.74878288815052</v>
+        <v>17.50097725785729</v>
       </c>
       <c r="F31">
-        <v>23.86967875725176</v>
+        <v>14.0423460903813</v>
       </c>
       <c r="G31">
-        <v>68.30832903476305</v>
+        <v>40.18525791304877</v>
       </c>
       <c r="H31">
-        <v>5.711708861489523</v>
+        <v>3.360153834335394</v>
       </c>
       <c r="I31">
-        <v>226.2719233381391</v>
+        <v>133.1140100528191</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>87.92453333940202</v>
+        <v>51.72531811355243</v>
       </c>
       <c r="C32">
-        <v>4.3193256707578</v>
+        <v>2.541025648592881</v>
       </c>
       <c r="D32">
-        <v>12.57276461825291</v>
+        <v>7.396459494821253</v>
       </c>
       <c r="E32">
-        <v>32.40492421744965</v>
+        <v>19.06356451302313</v>
       </c>
       <c r="F32">
-        <v>28.23608340796854</v>
+        <v>16.61106793618275</v>
       </c>
       <c r="G32">
-        <v>64.22150593011909</v>
+        <v>37.78101171312277</v>
       </c>
       <c r="H32">
-        <v>3.998196203042667</v>
+        <v>2.352107684034776</v>
       </c>
       <c r="I32">
-        <v>233.6773333869927</v>
+        <v>137.47055510333</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>96.66489182146236</v>
+        <v>56.86720292931702</v>
       </c>
       <c r="C33">
-        <v>3.199500496857631</v>
+        <v>1.882241221179911</v>
       </c>
       <c r="D33">
-        <v>34.57510270019549</v>
+        <v>20.34026361075845</v>
       </c>
       <c r="E33">
-        <v>32.93615248330951</v>
+        <v>19.37608196405628</v>
       </c>
       <c r="F33">
-        <v>28.67272387304022</v>
+        <v>16.8679401207629</v>
       </c>
       <c r="G33">
-        <v>61.30234656965913</v>
+        <v>36.06369299888993</v>
       </c>
       <c r="H33">
-        <v>2.855854430744762</v>
+        <v>1.680076917167697</v>
       </c>
       <c r="I33">
-        <v>260.2065723752691</v>
+        <v>153.0774997621322</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>117.8501315859267</v>
+        <v>69.33031446951465</v>
       </c>
       <c r="C34">
-        <v>4.3193256707578</v>
+        <v>2.541025648592881</v>
       </c>
       <c r="D34">
-        <v>20.43074250466097</v>
+        <v>12.01924667908454</v>
       </c>
       <c r="E34">
-        <v>33.46738074916932</v>
+        <v>19.68859941508945</v>
       </c>
       <c r="F34">
-        <v>17.17452495948602</v>
+        <v>10.10363926015239</v>
       </c>
       <c r="G34">
-        <v>23.35327488367967</v>
+        <v>13.73854971386283</v>
       </c>
       <c r="H34">
-        <v>6.282879747638476</v>
+        <v>3.696169217768932</v>
       </c>
       <c r="I34">
-        <v>222.8782601013189</v>
+        <v>131.1175444040657</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>113.5088939292741</v>
+        <v>66.77639817029383</v>
       </c>
       <c r="C35">
-        <v>3.839400596229156</v>
+        <v>2.258689465415894</v>
       </c>
       <c r="D35">
-        <v>17.28755135009775</v>
+        <v>10.17013180537923</v>
       </c>
       <c r="E35">
-        <v>39.31089167362747</v>
+        <v>23.12629137645428</v>
       </c>
       <c r="F35">
-        <v>12.225933022007</v>
+        <v>7.192421168244076</v>
       </c>
       <c r="G35">
-        <v>14.59579680229979</v>
+        <v>8.586593571164268</v>
       </c>
       <c r="H35">
-        <v>1.142341772297905</v>
+        <v>0.6720307668670789</v>
       </c>
       <c r="I35">
-        <v>201.9108091458332</v>
+        <v>118.7825563238187</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>81.67315111382244</v>
+        <v>48.04767864267445</v>
       </c>
       <c r="C36">
-        <v>5.27917581981509</v>
+        <v>3.105698014946854</v>
       </c>
       <c r="D36">
-        <v>15.19209058038892</v>
+        <v>8.937388556242347</v>
       </c>
       <c r="E36">
-        <v>37.18597861018814</v>
+        <v>21.87622157232161</v>
       </c>
       <c r="F36">
-        <v>7.713981549599653</v>
+        <v>4.538075260915906</v>
       </c>
       <c r="G36">
-        <v>19.85028365112771</v>
+        <v>11.67776725678341</v>
       </c>
       <c r="H36">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="I36">
-        <v>167.4658322110909</v>
+        <v>98.51884468731811</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>58.92506579296334</v>
+        <v>34.66515723475732</v>
       </c>
       <c r="C37">
-        <v>8.318701291829838</v>
+        <v>4.893827175067772</v>
       </c>
       <c r="D37">
-        <v>11.00116904097129</v>
+        <v>6.471902057968596</v>
       </c>
       <c r="E37">
-        <v>31.87369595158984</v>
+        <v>18.75104706198995</v>
       </c>
       <c r="F37">
-        <v>6.258513332694057</v>
+        <v>3.681834645648753</v>
       </c>
       <c r="G37">
-        <v>20.43411552321971</v>
+        <v>12.02123099962998</v>
       </c>
       <c r="H37">
-        <v>1.427927215372381</v>
+        <v>0.8400384585838486</v>
       </c>
       <c r="I37">
-        <v>138.2391881486405</v>
+        <v>81.32503763364622</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>44.16485776034481</v>
+        <v>25.98184181740652</v>
       </c>
       <c r="C38">
-        <v>4.799250745286445</v>
+        <v>2.823361831769867</v>
       </c>
       <c r="D38">
-        <v>5.76251711669925</v>
+        <v>3.390043935126407</v>
       </c>
       <c r="E38">
-        <v>31.34246768573</v>
+        <v>18.43852961095679</v>
       </c>
       <c r="F38">
-        <v>3.929764185645107</v>
+        <v>2.311849661221311</v>
       </c>
       <c r="G38">
-        <v>10.50897369765585</v>
+        <v>6.182347371238269</v>
       </c>
       <c r="H38">
-        <v>1.427927215372381</v>
+        <v>0.8400384585838486</v>
       </c>
       <c r="I38">
-        <v>101.9357584067338</v>
+        <v>59.96801268630301</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>27.84180417133139</v>
+        <v>16.37911653233622</v>
       </c>
       <c r="C39">
-        <v>6.399000993715261</v>
+        <v>3.764482442359823</v>
       </c>
       <c r="D39">
-        <v>5.76251711669925</v>
+        <v>3.390043935126407</v>
       </c>
       <c r="E39">
-        <v>17.53053277337441</v>
+        <v>10.31307588409447</v>
       </c>
       <c r="F39">
-        <v>3.493123720573428</v>
+        <v>2.054977476641165</v>
       </c>
       <c r="G39">
-        <v>7.589814337195892</v>
+        <v>4.46502865700542</v>
       </c>
       <c r="H39">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="I39">
-        <v>69.18796399903857</v>
+        <v>40.70274031099704</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>16.38093675776878</v>
+        <v>9.636777502393244</v>
       </c>
       <c r="C40">
-        <v>3.679425571386274</v>
+        <v>2.164577404356899</v>
       </c>
       <c r="D40">
-        <v>2.095460769708817</v>
+        <v>1.232743249136876</v>
       </c>
       <c r="E40">
-        <v>7.968423987897459</v>
+        <v>4.687761765497489</v>
       </c>
       <c r="F40">
-        <v>3.202030077192309</v>
+        <v>1.883729353587734</v>
       </c>
       <c r="G40">
-        <v>12.84430118602382</v>
+        <v>7.556202342624556</v>
       </c>
       <c r="H40">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="I40">
-        <v>46.74174923612642</v>
+        <v>27.49780700103034</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>9.898021857167707</v>
+        <v>5.822929162223479</v>
       </c>
       <c r="C41">
-        <v>2.719575422328985</v>
+        <v>1.599905038002925</v>
       </c>
       <c r="D41">
-        <v>0.5238651924272043</v>
+        <v>0.308185812284219</v>
       </c>
       <c r="E41">
-        <v>3.187369595158982</v>
+        <v>1.875104706198995</v>
       </c>
       <c r="F41">
-        <v>4.657498294097903</v>
+        <v>2.739969968854886</v>
       </c>
       <c r="G41">
-        <v>12.26046931393182</v>
+        <v>7.212738599777987</v>
       </c>
       <c r="H41">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I41">
-        <v>33.53238511818708</v>
+        <v>19.72684097905926</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>7.409045600686938</v>
+        <v>4.358683817336872</v>
       </c>
       <c r="C42">
-        <v>4.159350645914919</v>
+        <v>2.446913587533886</v>
       </c>
       <c r="D42">
-        <v>1.047730384854409</v>
+        <v>0.6163716245684381</v>
       </c>
       <c r="E42">
-        <v>1.062456531719661</v>
+        <v>0.6250349020663317</v>
       </c>
       <c r="F42">
-        <v>3.929764185645107</v>
+        <v>2.311849661221311</v>
       </c>
       <c r="G42">
-        <v>8.757478081379874</v>
+        <v>5.151956142698562</v>
       </c>
       <c r="I42">
-        <v>26.36582543020091</v>
+        <v>15.5108097354254</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>4.341237656652502</v>
+        <v>2.553916299220825</v>
       </c>
       <c r="C43">
-        <v>1.919700298114578</v>
+        <v>1.129344732707947</v>
       </c>
       <c r="D43">
-        <v>1.571595577281613</v>
+        <v>0.9245574368526567</v>
       </c>
       <c r="E43">
-        <v>0.5312282658598305</v>
+        <v>0.3125174510331659</v>
       </c>
       <c r="F43">
-        <v>3.05648325550175</v>
+        <v>1.798105292061019</v>
       </c>
       <c r="G43">
-        <v>12.84430118602382</v>
+        <v>7.556202342624556</v>
       </c>
       <c r="I43">
-        <v>24.26454623943409</v>
+        <v>14.27464355450017</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>5.904083213047406</v>
+        <v>3.473326166940321</v>
       </c>
       <c r="C44">
-        <v>1.439775223585933</v>
+        <v>0.8470085495309601</v>
       </c>
       <c r="D44">
-        <v>1.571595577281613</v>
+        <v>0.9245574368526567</v>
       </c>
       <c r="E44">
-        <v>4.249826126878644</v>
+        <v>2.500139608265327</v>
       </c>
       <c r="F44">
-        <v>2.91093643381119</v>
+        <v>1.712481230534304</v>
       </c>
       <c r="G44">
-        <v>7.005982465103898</v>
+        <v>4.121564914158848</v>
       </c>
       <c r="I44">
-        <v>23.08219903970869</v>
+        <v>13.57907790628242</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>11.86604959485017</v>
+        <v>6.980704551203585</v>
       </c>
       <c r="C45">
-        <v>2.239650347800341</v>
+        <v>1.317568854825939</v>
       </c>
       <c r="D45">
-        <v>1.571595577281613</v>
+        <v>0.9245574368526567</v>
       </c>
       <c r="E45">
-        <v>2.656141329299152</v>
+        <v>1.56258725516583</v>
       </c>
       <c r="F45">
-        <v>3.929764185645107</v>
+        <v>2.311849661221311</v>
       </c>
       <c r="G45">
-        <v>14.59579680229979</v>
+        <v>8.586593571164268</v>
       </c>
       <c r="H45">
-        <v>0.8567563292234285</v>
+        <v>0.5040230751503091</v>
       </c>
       <c r="I45">
-        <v>37.71575416639961</v>
+        <v>22.18788440558389</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>35.19296660326297</v>
+        <v>20.70374813235015</v>
       </c>
       <c r="C46">
-        <v>2.879550447171867</v>
+        <v>1.69401709906192</v>
       </c>
       <c r="D46">
-        <v>9.953438656116884</v>
+        <v>5.855530433400159</v>
       </c>
       <c r="E46">
-        <v>11.68702184891627</v>
+        <v>6.875383922729651</v>
       </c>
       <c r="F46">
-        <v>9.023902944814688</v>
+        <v>5.308691814656343</v>
       </c>
       <c r="G46">
-        <v>28.02392986041559</v>
+        <v>16.48625965663539</v>
       </c>
       <c r="H46">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I46">
-        <v>97.04639580377275</v>
+        <v>57.09163875055039</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>59.73543015553847</v>
+        <v>35.14188827727855</v>
       </c>
       <c r="C47">
-        <v>2.079675322957459</v>
+        <v>1.223456793766943</v>
       </c>
       <c r="D47">
-        <v>13.62049500310732</v>
+        <v>8.012831119389693</v>
       </c>
       <c r="E47">
-        <v>31.34246768573</v>
+        <v>18.43852961095679</v>
       </c>
       <c r="F47">
-        <v>12.37147984369756</v>
+        <v>7.278045229770792</v>
       </c>
       <c r="G47">
-        <v>38.53290355807145</v>
+        <v>22.66860702787367</v>
       </c>
       <c r="H47">
-        <v>3.427025316893714</v>
+        <v>2.016092300601236</v>
       </c>
       <c r="I47">
-        <v>161.109476885996</v>
+        <v>94.77945035963766</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>93.82861655244939</v>
+        <v>55.19864428049274</v>
       </c>
       <c r="C48">
-        <v>2.079675322957459</v>
+        <v>1.223456793766943</v>
       </c>
       <c r="D48">
-        <v>13.62049500310732</v>
+        <v>8.012831119389693</v>
       </c>
       <c r="E48">
-        <v>39.31089167362747</v>
+        <v>23.12629137645428</v>
       </c>
       <c r="F48">
-        <v>18.48444635470106</v>
+        <v>10.87425581389283</v>
       </c>
       <c r="G48">
-        <v>43.78739040689937</v>
+        <v>25.75978071349281</v>
       </c>
       <c r="H48">
-        <v>5.997294304564</v>
+        <v>3.528161526052164</v>
       </c>
       <c r="I48">
-        <v>217.108809618306</v>
+        <v>127.7234216235414</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>91.22387395845793</v>
+        <v>53.6662945009603</v>
       </c>
       <c r="C49">
-        <v>3.519450546543392</v>
+        <v>2.070465343297903</v>
       </c>
       <c r="D49">
-        <v>14.66822538796172</v>
+        <v>8.62920274395813</v>
       </c>
       <c r="E49">
-        <v>37.18597861018814</v>
+        <v>21.87622157232161</v>
       </c>
       <c r="F49">
-        <v>15.42796309919931</v>
+        <v>9.076150521831812</v>
       </c>
       <c r="G49">
-        <v>52.54486848827925</v>
+        <v>30.91173685619138</v>
       </c>
       <c r="H49">
-        <v>1.142341772297905</v>
+        <v>0.6720307668670789</v>
       </c>
       <c r="I49">
-        <v>215.7127018629276</v>
+        <v>126.9021023054282</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>51.69126589622949</v>
+        <v>87.86665017064665</v>
       </c>
       <c r="C2">
-        <v>2.258689465415894</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="D2">
-        <v>13.25198992822141</v>
+        <v>22.52620327436979</v>
       </c>
       <c r="E2">
-        <v>16.87594235579096</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="F2">
-        <v>18.06667698213692</v>
+        <v>30.71037937670806</v>
       </c>
       <c r="G2">
-        <v>72.81431348347299</v>
+        <v>123.7723568835022</v>
       </c>
       <c r="H2">
-        <v>2.856130759185085</v>
+        <v>4.854952532266095</v>
       </c>
       <c r="I2">
-        <v>177.8150088704527</v>
+        <v>302.2562691901528</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>38.44495335760412</v>
+        <v>65.35009752480902</v>
       </c>
       <c r="C3">
-        <v>2.352801526474889</v>
+        <v>3.999375621072037</v>
       </c>
       <c r="D3">
-        <v>12.94380411593719</v>
+        <v>22.00233808194258</v>
       </c>
       <c r="E3">
-        <v>11.8756631392603</v>
+        <v>20.18667410267356</v>
       </c>
       <c r="F3">
-        <v>18.83729353587734</v>
+        <v>32.02030077192308</v>
       </c>
       <c r="G3">
-        <v>51.17609768413904</v>
+        <v>86.99094894170673</v>
       </c>
       <c r="H3">
-        <v>2.184099992318006</v>
+        <v>3.712610759968191</v>
       </c>
       <c r="I3">
-        <v>137.8147133516109</v>
+        <v>234.2623458040952</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>41.57775735131501</v>
+        <v>70.67534905030274</v>
       </c>
       <c r="C4">
-        <v>2.541025648592881</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="D4">
-        <v>10.78650342994766</v>
+        <v>18.33528173495215</v>
       </c>
       <c r="E4">
-        <v>16.87594235579096</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="F4">
-        <v>15.49795513633545</v>
+        <v>26.34397472599127</v>
       </c>
       <c r="G4">
-        <v>50.4891701984459</v>
+        <v>85.82328519752278</v>
       </c>
       <c r="H4">
-        <v>1.008046150300618</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="I4">
-        <v>138.7764002707285</v>
+        <v>235.8970553944044</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>38.75142331351062</v>
+        <v>65.87104604360728</v>
       </c>
       <c r="C5">
-        <v>3.105698014946854</v>
+        <v>5.27917581981509</v>
       </c>
       <c r="D5">
-        <v>14.17654736507407</v>
+        <v>24.09779885165141</v>
       </c>
       <c r="E5">
-        <v>13.7507678454593</v>
+        <v>23.37404369783255</v>
       </c>
       <c r="F5">
-        <v>13.01485735206071</v>
+        <v>22.12311689696504</v>
       </c>
       <c r="G5">
-        <v>45.68067779859392</v>
+        <v>77.64963898823488</v>
       </c>
       <c r="H5">
-        <v>1.848084608884466</v>
+        <v>3.141439873819238</v>
       </c>
       <c r="I5">
-        <v>130.32805629853</v>
+        <v>221.5362601719255</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>40.24972087572019</v>
+        <v>68.41790546884344</v>
       </c>
       <c r="C6">
-        <v>3.764482442359823</v>
+        <v>6.399000993715261</v>
       </c>
       <c r="D6">
-        <v>12.01924667908454</v>
+        <v>20.43074250466097</v>
       </c>
       <c r="E6">
-        <v>17.81349470889045</v>
+        <v>30.28001115401034</v>
       </c>
       <c r="F6">
-        <v>15.06983482870187</v>
+        <v>25.61624061753847</v>
       </c>
       <c r="G6">
-        <v>47.39799651282676</v>
+        <v>80.56879834869484</v>
       </c>
       <c r="H6">
-        <v>2.016092300601236</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="I6">
-        <v>138.3308683481849</v>
+        <v>235.139724404357</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>39.5686765292613</v>
+        <v>67.26024209373611</v>
       </c>
       <c r="C7">
-        <v>3.011585953887858</v>
+        <v>5.119200794972208</v>
       </c>
       <c r="D7">
-        <v>14.79291898964251</v>
+        <v>25.14552923650581</v>
       </c>
       <c r="E7">
-        <v>13.43825039442613</v>
+        <v>22.84281543197271</v>
       </c>
       <c r="F7">
-        <v>16.95356418228961</v>
+        <v>28.81827069473078</v>
       </c>
       <c r="G7">
-        <v>48.42838774136647</v>
+        <v>82.32029396497082</v>
       </c>
       <c r="H7">
-        <v>1.848084608884466</v>
+        <v>3.141439873819238</v>
       </c>
       <c r="I7">
-        <v>138.0414683997584</v>
+        <v>234.6477920907077</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>41.67991400328383</v>
+        <v>70.84899855656887</v>
       </c>
       <c r="C8">
-        <v>3.293922137064845</v>
+        <v>5.599125869500852</v>
       </c>
       <c r="D8">
-        <v>10.17013180537923</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="E8">
-        <v>14.37580274752563</v>
+        <v>24.43650022955221</v>
       </c>
       <c r="F8">
-        <v>15.24108295175531</v>
+        <v>25.9073342609196</v>
       </c>
       <c r="G8">
-        <v>37.09408422742965</v>
+        <v>63.05384218593508</v>
       </c>
       <c r="H8">
-        <v>2.352107684034776</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="I8">
-        <v>124.2070455564733</v>
+        <v>211.131548655617</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>56.86720292931702</v>
+        <v>96.66489182146236</v>
       </c>
       <c r="C9">
-        <v>1.882241221179911</v>
+        <v>3.199500496857631</v>
       </c>
       <c r="D9">
-        <v>20.34026361075845</v>
+        <v>34.57510270019549</v>
       </c>
       <c r="E9">
-        <v>19.37608196405628</v>
+        <v>32.93615248330951</v>
       </c>
       <c r="F9">
-        <v>16.8679401207629</v>
+        <v>28.67272387304022</v>
       </c>
       <c r="G9">
-        <v>36.06369299888993</v>
+        <v>61.30234656965913</v>
       </c>
       <c r="H9">
-        <v>1.680076917167697</v>
+        <v>2.855854430744762</v>
       </c>
       <c r="I9">
-        <v>153.0774997621322</v>
+        <v>260.2065723752691</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>69.33031446951465</v>
+        <v>117.8501315859267</v>
       </c>
       <c r="C10">
-        <v>2.541025648592881</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="D10">
-        <v>12.01924667908454</v>
+        <v>20.43074250466097</v>
       </c>
       <c r="E10">
-        <v>19.68859941508945</v>
+        <v>33.46738074916932</v>
       </c>
       <c r="F10">
-        <v>10.10363926015239</v>
+        <v>17.17452495948602</v>
       </c>
       <c r="G10">
-        <v>13.73854971386283</v>
+        <v>23.35327488367967</v>
       </c>
       <c r="H10">
-        <v>3.696169217768932</v>
+        <v>6.282879747638476</v>
       </c>
       <c r="I10">
-        <v>131.1175444040657</v>
+        <v>222.8782601013189</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>66.77639817029383</v>
+        <v>113.5088939292741</v>
       </c>
       <c r="C11">
-        <v>2.258689465415894</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="D11">
-        <v>10.17013180537923</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="E11">
-        <v>23.12629137645428</v>
+        <v>39.31089167362747</v>
       </c>
       <c r="F11">
-        <v>7.192421168244076</v>
+        <v>12.225933022007</v>
       </c>
       <c r="G11">
-        <v>8.586593571164268</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="H11">
-        <v>0.6720307668670789</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="I11">
-        <v>118.7825563238187</v>
+        <v>201.9108091458332</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>48.04767864267445</v>
+        <v>81.67315111382244</v>
       </c>
       <c r="C12">
-        <v>3.105698014946854</v>
+        <v>5.27917581981509</v>
       </c>
       <c r="D12">
-        <v>8.937388556242347</v>
+        <v>15.19209058038892</v>
       </c>
       <c r="E12">
-        <v>21.87622157232161</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="F12">
-        <v>4.538075260915906</v>
+        <v>7.713981549599653</v>
       </c>
       <c r="G12">
-        <v>11.67776725678341</v>
+        <v>19.85028365112771</v>
       </c>
       <c r="H12">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I12">
-        <v>98.51884468731811</v>
+        <v>167.4658322110909</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>34.66515723475732</v>
+        <v>58.92506579296334</v>
       </c>
       <c r="C13">
-        <v>4.893827175067772</v>
+        <v>8.318701291829838</v>
       </c>
       <c r="D13">
-        <v>6.471902057968596</v>
+        <v>11.00116904097129</v>
       </c>
       <c r="E13">
-        <v>18.75104706198995</v>
+        <v>31.87369595158984</v>
       </c>
       <c r="F13">
-        <v>3.681834645648753</v>
+        <v>6.258513332694057</v>
       </c>
       <c r="G13">
-        <v>12.02123099962998</v>
+        <v>20.43411552321971</v>
       </c>
       <c r="H13">
-        <v>0.8400384585838486</v>
+        <v>1.427927215372381</v>
       </c>
       <c r="I13">
-        <v>81.32503763364622</v>
+        <v>138.2391881486405</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>25.98184181740652</v>
+        <v>44.16485776034481</v>
       </c>
       <c r="C14">
-        <v>2.823361831769867</v>
+        <v>4.799250745286445</v>
       </c>
       <c r="D14">
-        <v>3.390043935126407</v>
+        <v>5.76251711669925</v>
       </c>
       <c r="E14">
-        <v>18.43852961095679</v>
+        <v>31.34246768573</v>
       </c>
       <c r="F14">
-        <v>2.311849661221311</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="G14">
-        <v>6.182347371238269</v>
+        <v>10.50897369765585</v>
       </c>
       <c r="H14">
-        <v>0.8400384585838486</v>
+        <v>1.427927215372381</v>
       </c>
       <c r="I14">
-        <v>59.96801268630301</v>
+        <v>101.9357584067338</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>16.37911653233622</v>
+        <v>27.84180417133139</v>
       </c>
       <c r="C15">
-        <v>3.764482442359823</v>
+        <v>6.399000993715261</v>
       </c>
       <c r="D15">
-        <v>3.390043935126407</v>
+        <v>5.76251711669925</v>
       </c>
       <c r="E15">
-        <v>10.31307588409447</v>
+        <v>17.53053277337441</v>
       </c>
       <c r="F15">
-        <v>2.054977476641165</v>
+        <v>3.493123720573428</v>
       </c>
       <c r="G15">
-        <v>4.46502865700542</v>
+        <v>7.589814337195892</v>
       </c>
       <c r="H15">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I15">
-        <v>40.70274031099704</v>
+        <v>69.18796399903857</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>9.636777502393244</v>
+        <v>16.38093675776878</v>
       </c>
       <c r="C16">
-        <v>2.164577404356899</v>
+        <v>3.679425571386274</v>
       </c>
       <c r="D16">
-        <v>1.232743249136876</v>
+        <v>2.095460769708817</v>
       </c>
       <c r="E16">
-        <v>4.687761765497489</v>
+        <v>7.968423987897459</v>
       </c>
       <c r="F16">
-        <v>1.883729353587734</v>
+        <v>3.202030077192309</v>
       </c>
       <c r="G16">
-        <v>7.556202342624556</v>
+        <v>12.84430118602382</v>
       </c>
       <c r="H16">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I16">
-        <v>27.49780700103034</v>
+        <v>46.74174923612642</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>5.822929162223479</v>
+        <v>9.898021857167707</v>
       </c>
       <c r="C17">
-        <v>1.599905038002925</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="D17">
-        <v>0.308185812284219</v>
+        <v>0.5238651924272043</v>
       </c>
       <c r="E17">
-        <v>1.875104706198995</v>
+        <v>3.187369595158982</v>
       </c>
       <c r="F17">
-        <v>2.739969968854886</v>
+        <v>4.657498294097903</v>
       </c>
       <c r="G17">
-        <v>7.212738599777987</v>
+        <v>12.26046931393182</v>
       </c>
       <c r="H17">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I17">
-        <v>19.72684097905926</v>
+        <v>33.53238511818708</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>4.358683817336872</v>
+        <v>7.409045600686938</v>
       </c>
       <c r="C18">
-        <v>2.446913587533886</v>
+        <v>4.159350645914919</v>
       </c>
       <c r="D18">
-        <v>0.6163716245684381</v>
+        <v>1.047730384854409</v>
       </c>
       <c r="E18">
-        <v>0.6250349020663317</v>
+        <v>1.062456531719661</v>
       </c>
       <c r="F18">
-        <v>2.311849661221311</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="G18">
-        <v>5.151956142698562</v>
+        <v>8.757478081379874</v>
       </c>
       <c r="I18">
-        <v>15.5108097354254</v>
+        <v>26.36582543020091</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>2.553916299220825</v>
+        <v>4.341237656652502</v>
       </c>
       <c r="C19">
-        <v>1.129344732707947</v>
+        <v>1.919700298114578</v>
       </c>
       <c r="D19">
-        <v>0.9245574368526567</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="E19">
-        <v>0.3125174510331659</v>
+        <v>0.5312282658598305</v>
       </c>
       <c r="F19">
-        <v>1.798105292061019</v>
+        <v>3.05648325550175</v>
       </c>
       <c r="G19">
-        <v>7.556202342624556</v>
+        <v>12.84430118602382</v>
       </c>
       <c r="I19">
-        <v>14.27464355450017</v>
+        <v>24.26454623943409</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>3.473326166940321</v>
+        <v>5.904083213047406</v>
       </c>
       <c r="C20">
-        <v>0.8470085495309601</v>
+        <v>1.439775223585933</v>
       </c>
       <c r="D20">
-        <v>0.9245574368526567</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="E20">
-        <v>2.500139608265327</v>
+        <v>4.249826126878644</v>
       </c>
       <c r="F20">
-        <v>1.712481230534304</v>
+        <v>2.91093643381119</v>
       </c>
       <c r="G20">
-        <v>4.121564914158848</v>
+        <v>7.005982465103898</v>
       </c>
       <c r="I20">
-        <v>13.57907790628242</v>
+        <v>23.08219903970869</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>6.980704551203585</v>
+        <v>11.86604959485017</v>
       </c>
       <c r="C21">
-        <v>1.317568854825939</v>
+        <v>2.239650347800341</v>
       </c>
       <c r="D21">
-        <v>0.9245574368526567</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="E21">
-        <v>1.56258725516583</v>
+        <v>2.656141329299152</v>
       </c>
       <c r="F21">
-        <v>2.311849661221311</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="G21">
-        <v>8.586593571164268</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="H21">
-        <v>0.5040230751503091</v>
+        <v>0.8567563292234285</v>
       </c>
       <c r="I21">
-        <v>22.18788440558389</v>
+        <v>37.71575416639961</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>20.70374813235015</v>
+        <v>35.19296660326297</v>
       </c>
       <c r="C22">
-        <v>1.69401709906192</v>
+        <v>2.879550447171867</v>
       </c>
       <c r="D22">
-        <v>5.855530433400159</v>
+        <v>9.953438656116884</v>
       </c>
       <c r="E22">
-        <v>6.875383922729651</v>
+        <v>11.68702184891627</v>
       </c>
       <c r="F22">
-        <v>5.308691814656343</v>
+        <v>9.023902944814688</v>
       </c>
       <c r="G22">
-        <v>16.48625965663539</v>
+        <v>28.02392986041559</v>
       </c>
       <c r="H22">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I22">
-        <v>57.09163875055039</v>
+        <v>97.04639580377275</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>35.14188827727855</v>
+        <v>59.73543015553847</v>
       </c>
       <c r="C23">
-        <v>1.223456793766943</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="D23">
-        <v>8.012831119389693</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="E23">
-        <v>18.43852961095679</v>
+        <v>31.34246768573</v>
       </c>
       <c r="F23">
-        <v>7.278045229770792</v>
+        <v>12.37147984369756</v>
       </c>
       <c r="G23">
-        <v>22.66860702787367</v>
+        <v>38.53290355807145</v>
       </c>
       <c r="H23">
-        <v>2.016092300601236</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="I23">
-        <v>94.77945035963766</v>
+        <v>161.109476885996</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>55.19864428049274</v>
+        <v>93.82861655244939</v>
       </c>
       <c r="C24">
-        <v>1.223456793766943</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="D24">
-        <v>8.012831119389693</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="E24">
-        <v>23.12629137645428</v>
+        <v>39.31089167362747</v>
       </c>
       <c r="F24">
-        <v>10.87425581389283</v>
+        <v>18.48444635470106</v>
       </c>
       <c r="G24">
-        <v>25.75978071349281</v>
+        <v>43.78739040689937</v>
       </c>
       <c r="H24">
-        <v>3.528161526052164</v>
+        <v>5.997294304564</v>
       </c>
       <c r="I24">
-        <v>127.7234216235414</v>
+        <v>217.108809618306</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>53.6662945009603</v>
+        <v>91.22387395845793</v>
       </c>
       <c r="C25">
-        <v>2.070465343297903</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="D25">
-        <v>8.62920274395813</v>
+        <v>14.66822538796172</v>
       </c>
       <c r="E25">
-        <v>21.87622157232161</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="F25">
-        <v>9.076150521831812</v>
+        <v>15.42796309919931</v>
       </c>
       <c r="G25">
-        <v>30.91173685619138</v>
+        <v>52.54486848827925</v>
       </c>
       <c r="H25">
-        <v>0.6720307668670789</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="I25">
-        <v>126.9021023054282</v>
+        <v>215.7127018629276</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>51.69126589622949</v>
+        <v>87.86665017064665</v>
       </c>
       <c r="C26">
-        <v>2.258689465415894</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="D26">
-        <v>13.25198992822141</v>
+        <v>22.52620327436979</v>
       </c>
       <c r="E26">
-        <v>16.87594235579096</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="F26">
-        <v>18.06667698213692</v>
+        <v>30.71037937670806</v>
       </c>
       <c r="G26">
-        <v>72.81431348347299</v>
+        <v>123.7723568835022</v>
       </c>
       <c r="H26">
-        <v>2.856130759185085</v>
+        <v>4.854952532266095</v>
       </c>
       <c r="I26">
-        <v>177.8150088704527</v>
+        <v>302.2562691901528</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>42.19069726312802</v>
+        <v>71.71724608789937</v>
       </c>
       <c r="C27">
-        <v>2.541025648592881</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="D27">
-        <v>8.62920274395813</v>
+        <v>14.66822538796172</v>
       </c>
       <c r="E27">
-        <v>16.56342490475778</v>
+        <v>28.15509809057102</v>
       </c>
       <c r="F27">
-        <v>17.4673085514499</v>
+        <v>29.69155162487414</v>
       </c>
       <c r="G27">
-        <v>62.85386494092245</v>
+        <v>106.8412325928345</v>
       </c>
       <c r="H27">
-        <v>2.184099992318006</v>
+        <v>3.712610759968191</v>
       </c>
       <c r="I27">
-        <v>152.4296240451272</v>
+        <v>259.1052902148667</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>45.3235012568389</v>
+        <v>77.04249761339307</v>
       </c>
       <c r="C28">
-        <v>4.517378930831788</v>
+        <v>7.678801192458312</v>
       </c>
       <c r="D28">
-        <v>12.94380411593719</v>
+        <v>22.00233808194258</v>
       </c>
       <c r="E28">
-        <v>18.43852961095679</v>
+        <v>31.34246768573</v>
       </c>
       <c r="F28">
-        <v>13.01485735206071</v>
+        <v>22.12311689696504</v>
       </c>
       <c r="G28">
-        <v>55.98459008399104</v>
+        <v>95.16459515099466</v>
       </c>
       <c r="H28">
-        <v>1.512069225450927</v>
+        <v>2.570268987670286</v>
       </c>
       <c r="I28">
-        <v>151.7347305760673</v>
+        <v>257.9240856091539</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>40.96481743950201</v>
+        <v>69.63345201270613</v>
       </c>
       <c r="C29">
-        <v>2.164577404356899</v>
+        <v>3.679425571386274</v>
       </c>
       <c r="D29">
-        <v>11.71106086680032</v>
+        <v>19.90687731223377</v>
       </c>
       <c r="E29">
-        <v>20.00111686612262</v>
+        <v>33.99860901502915</v>
       </c>
       <c r="F29">
-        <v>11.47362424457984</v>
+        <v>19.50327410653497</v>
       </c>
       <c r="G29">
-        <v>35.37676551319678</v>
+        <v>60.13468282547513</v>
       </c>
       <c r="H29">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I29">
-        <v>122.027977717992</v>
+        <v>207.4274917295144</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>43.00795047887867</v>
+        <v>73.10644213802814</v>
       </c>
       <c r="C30">
-        <v>2.352801526474889</v>
+        <v>3.999375621072037</v>
       </c>
       <c r="D30">
-        <v>11.09468924223189</v>
+        <v>18.85914692737936</v>
       </c>
       <c r="E30">
-        <v>16.56342490475778</v>
+        <v>28.15509809057102</v>
       </c>
       <c r="F30">
-        <v>17.63855667450333</v>
+        <v>29.98264526825525</v>
       </c>
       <c r="G30">
-        <v>43.27643159866793</v>
+        <v>73.56281588359094</v>
       </c>
       <c r="H30">
-        <v>1.344061533734158</v>
+        <v>2.28468354459581</v>
       </c>
       <c r="I30">
-        <v>135.2779159592486</v>
+        <v>229.9502074734926</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>43.96141256392112</v>
+        <v>74.72717086317843</v>
       </c>
       <c r="C31">
-        <v>2.352801526474889</v>
+        <v>3.999375621072037</v>
       </c>
       <c r="D31">
-        <v>11.71106086680032</v>
+        <v>19.90687731223377</v>
       </c>
       <c r="E31">
-        <v>17.50097725785729</v>
+        <v>29.74878288815052</v>
       </c>
       <c r="F31">
-        <v>14.0423460903813</v>
+        <v>23.86967875725176</v>
       </c>
       <c r="G31">
-        <v>40.18525791304877</v>
+        <v>68.30832903476305</v>
       </c>
       <c r="H31">
-        <v>3.360153834335394</v>
+        <v>5.711708861489523</v>
       </c>
       <c r="I31">
-        <v>133.1140100528191</v>
+        <v>226.2719233381391</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>51.72531811355243</v>
+        <v>87.92453333940202</v>
       </c>
       <c r="C32">
-        <v>2.541025648592881</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="D32">
-        <v>7.396459494821253</v>
+        <v>12.57276461825291</v>
       </c>
       <c r="E32">
-        <v>19.06356451302313</v>
+        <v>32.40492421744965</v>
       </c>
       <c r="F32">
-        <v>16.61106793618275</v>
+        <v>28.23608340796854</v>
       </c>
       <c r="G32">
-        <v>37.78101171312277</v>
+        <v>64.22150593011909</v>
       </c>
       <c r="H32">
-        <v>2.352107684034776</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="I32">
-        <v>137.47055510333</v>
+        <v>233.6773333869927</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>56.86720292931702</v>
+        <v>96.66489182146236</v>
       </c>
       <c r="C33">
-        <v>1.882241221179911</v>
+        <v>3.199500496857631</v>
       </c>
       <c r="D33">
-        <v>20.34026361075845</v>
+        <v>34.57510270019549</v>
       </c>
       <c r="E33">
-        <v>19.37608196405628</v>
+        <v>32.93615248330951</v>
       </c>
       <c r="F33">
-        <v>16.8679401207629</v>
+        <v>28.67272387304022</v>
       </c>
       <c r="G33">
-        <v>36.06369299888993</v>
+        <v>61.30234656965913</v>
       </c>
       <c r="H33">
-        <v>1.680076917167697</v>
+        <v>2.855854430744762</v>
       </c>
       <c r="I33">
-        <v>153.0774997621322</v>
+        <v>260.2065723752691</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>69.33031446951465</v>
+        <v>117.8501315859267</v>
       </c>
       <c r="C34">
-        <v>2.541025648592881</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="D34">
-        <v>12.01924667908454</v>
+        <v>20.43074250466097</v>
       </c>
       <c r="E34">
-        <v>19.68859941508945</v>
+        <v>33.46738074916932</v>
       </c>
       <c r="F34">
-        <v>10.10363926015239</v>
+        <v>17.17452495948602</v>
       </c>
       <c r="G34">
-        <v>13.73854971386283</v>
+        <v>23.35327488367967</v>
       </c>
       <c r="H34">
-        <v>3.696169217768932</v>
+        <v>6.282879747638476</v>
       </c>
       <c r="I34">
-        <v>131.1175444040657</v>
+        <v>222.8782601013189</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>66.77639817029383</v>
+        <v>113.5088939292741</v>
       </c>
       <c r="C35">
-        <v>2.258689465415894</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="D35">
-        <v>10.17013180537923</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="E35">
-        <v>23.12629137645428</v>
+        <v>39.31089167362747</v>
       </c>
       <c r="F35">
-        <v>7.192421168244076</v>
+        <v>12.225933022007</v>
       </c>
       <c r="G35">
-        <v>8.586593571164268</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="H35">
-        <v>0.6720307668670789</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="I35">
-        <v>118.7825563238187</v>
+        <v>201.9108091458332</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>48.04767864267445</v>
+        <v>81.67315111382244</v>
       </c>
       <c r="C36">
-        <v>3.105698014946854</v>
+        <v>5.27917581981509</v>
       </c>
       <c r="D36">
-        <v>8.937388556242347</v>
+        <v>15.19209058038892</v>
       </c>
       <c r="E36">
-        <v>21.87622157232161</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="F36">
-        <v>4.538075260915906</v>
+        <v>7.713981549599653</v>
       </c>
       <c r="G36">
-        <v>11.67776725678341</v>
+        <v>19.85028365112771</v>
       </c>
       <c r="H36">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I36">
-        <v>98.51884468731811</v>
+        <v>167.4658322110909</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>34.66515723475732</v>
+        <v>58.92506579296334</v>
       </c>
       <c r="C37">
-        <v>4.893827175067772</v>
+        <v>8.318701291829838</v>
       </c>
       <c r="D37">
-        <v>6.471902057968596</v>
+        <v>11.00116904097129</v>
       </c>
       <c r="E37">
-        <v>18.75104706198995</v>
+        <v>31.87369595158984</v>
       </c>
       <c r="F37">
-        <v>3.681834645648753</v>
+        <v>6.258513332694057</v>
       </c>
       <c r="G37">
-        <v>12.02123099962998</v>
+        <v>20.43411552321971</v>
       </c>
       <c r="H37">
-        <v>0.8400384585838486</v>
+        <v>1.427927215372381</v>
       </c>
       <c r="I37">
-        <v>81.32503763364622</v>
+        <v>138.2391881486405</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>25.98184181740652</v>
+        <v>44.16485776034481</v>
       </c>
       <c r="C38">
-        <v>2.823361831769867</v>
+        <v>4.799250745286445</v>
       </c>
       <c r="D38">
-        <v>3.390043935126407</v>
+        <v>5.76251711669925</v>
       </c>
       <c r="E38">
-        <v>18.43852961095679</v>
+        <v>31.34246768573</v>
       </c>
       <c r="F38">
-        <v>2.311849661221311</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="G38">
-        <v>6.182347371238269</v>
+        <v>10.50897369765585</v>
       </c>
       <c r="H38">
-        <v>0.8400384585838486</v>
+        <v>1.427927215372381</v>
       </c>
       <c r="I38">
-        <v>59.96801268630301</v>
+        <v>101.9357584067338</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>16.37911653233622</v>
+        <v>27.84180417133139</v>
       </c>
       <c r="C39">
-        <v>3.764482442359823</v>
+        <v>6.399000993715261</v>
       </c>
       <c r="D39">
-        <v>3.390043935126407</v>
+        <v>5.76251711669925</v>
       </c>
       <c r="E39">
-        <v>10.31307588409447</v>
+        <v>17.53053277337441</v>
       </c>
       <c r="F39">
-        <v>2.054977476641165</v>
+        <v>3.493123720573428</v>
       </c>
       <c r="G39">
-        <v>4.46502865700542</v>
+        <v>7.589814337195892</v>
       </c>
       <c r="H39">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I39">
-        <v>40.70274031099704</v>
+        <v>69.18796399903857</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>9.636777502393244</v>
+        <v>16.38093675776878</v>
       </c>
       <c r="C40">
-        <v>2.164577404356899</v>
+        <v>3.679425571386274</v>
       </c>
       <c r="D40">
-        <v>1.232743249136876</v>
+        <v>2.095460769708817</v>
       </c>
       <c r="E40">
-        <v>4.687761765497489</v>
+        <v>7.968423987897459</v>
       </c>
       <c r="F40">
-        <v>1.883729353587734</v>
+        <v>3.202030077192309</v>
       </c>
       <c r="G40">
-        <v>7.556202342624556</v>
+        <v>12.84430118602382</v>
       </c>
       <c r="H40">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I40">
-        <v>27.49780700103034</v>
+        <v>46.74174923612642</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>5.822929162223479</v>
+        <v>9.898021857167707</v>
       </c>
       <c r="C41">
-        <v>1.599905038002925</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="D41">
-        <v>0.308185812284219</v>
+        <v>0.5238651924272043</v>
       </c>
       <c r="E41">
-        <v>1.875104706198995</v>
+        <v>3.187369595158982</v>
       </c>
       <c r="F41">
-        <v>2.739969968854886</v>
+        <v>4.657498294097903</v>
       </c>
       <c r="G41">
-        <v>7.212738599777987</v>
+        <v>12.26046931393182</v>
       </c>
       <c r="H41">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I41">
-        <v>19.72684097905926</v>
+        <v>33.53238511818708</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>4.358683817336872</v>
+        <v>7.409045600686938</v>
       </c>
       <c r="C42">
-        <v>2.446913587533886</v>
+        <v>4.159350645914919</v>
       </c>
       <c r="D42">
-        <v>0.6163716245684381</v>
+        <v>1.047730384854409</v>
       </c>
       <c r="E42">
-        <v>0.6250349020663317</v>
+        <v>1.062456531719661</v>
       </c>
       <c r="F42">
-        <v>2.311849661221311</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="G42">
-        <v>5.151956142698562</v>
+        <v>8.757478081379874</v>
       </c>
       <c r="I42">
-        <v>15.5108097354254</v>
+        <v>26.36582543020091</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>2.553916299220825</v>
+        <v>4.341237656652502</v>
       </c>
       <c r="C43">
-        <v>1.129344732707947</v>
+        <v>1.919700298114578</v>
       </c>
       <c r="D43">
-        <v>0.9245574368526567</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="E43">
-        <v>0.3125174510331659</v>
+        <v>0.5312282658598305</v>
       </c>
       <c r="F43">
-        <v>1.798105292061019</v>
+        <v>3.05648325550175</v>
       </c>
       <c r="G43">
-        <v>7.556202342624556</v>
+        <v>12.84430118602382</v>
       </c>
       <c r="I43">
-        <v>14.27464355450017</v>
+        <v>24.26454623943409</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>3.473326166940321</v>
+        <v>5.904083213047406</v>
       </c>
       <c r="C44">
-        <v>0.8470085495309601</v>
+        <v>1.439775223585933</v>
       </c>
       <c r="D44">
-        <v>0.9245574368526567</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="E44">
-        <v>2.500139608265327</v>
+        <v>4.249826126878644</v>
       </c>
       <c r="F44">
-        <v>1.712481230534304</v>
+        <v>2.91093643381119</v>
       </c>
       <c r="G44">
-        <v>4.121564914158848</v>
+        <v>7.005982465103898</v>
       </c>
       <c r="I44">
-        <v>13.57907790628242</v>
+        <v>23.08219903970869</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>6.980704551203585</v>
+        <v>11.86604959485017</v>
       </c>
       <c r="C45">
-        <v>1.317568854825939</v>
+        <v>2.239650347800341</v>
       </c>
       <c r="D45">
-        <v>0.9245574368526567</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="E45">
-        <v>1.56258725516583</v>
+        <v>2.656141329299152</v>
       </c>
       <c r="F45">
-        <v>2.311849661221311</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="G45">
-        <v>8.586593571164268</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="H45">
-        <v>0.5040230751503091</v>
+        <v>0.8567563292234285</v>
       </c>
       <c r="I45">
-        <v>22.18788440558389</v>
+        <v>37.71575416639961</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>20.70374813235015</v>
+        <v>35.19296660326297</v>
       </c>
       <c r="C46">
-        <v>1.69401709906192</v>
+        <v>2.879550447171867</v>
       </c>
       <c r="D46">
-        <v>5.855530433400159</v>
+        <v>9.953438656116884</v>
       </c>
       <c r="E46">
-        <v>6.875383922729651</v>
+        <v>11.68702184891627</v>
       </c>
       <c r="F46">
-        <v>5.308691814656343</v>
+        <v>9.023902944814688</v>
       </c>
       <c r="G46">
-        <v>16.48625965663539</v>
+        <v>28.02392986041559</v>
       </c>
       <c r="H46">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I46">
-        <v>57.09163875055039</v>
+        <v>97.04639580377275</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>35.14188827727855</v>
+        <v>59.73543015553847</v>
       </c>
       <c r="C47">
-        <v>1.223456793766943</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="D47">
-        <v>8.012831119389693</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="E47">
-        <v>18.43852961095679</v>
+        <v>31.34246768573</v>
       </c>
       <c r="F47">
-        <v>7.278045229770792</v>
+        <v>12.37147984369756</v>
       </c>
       <c r="G47">
-        <v>22.66860702787367</v>
+        <v>38.53290355807145</v>
       </c>
       <c r="H47">
-        <v>2.016092300601236</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="I47">
-        <v>94.77945035963766</v>
+        <v>161.109476885996</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>55.19864428049274</v>
+        <v>93.82861655244939</v>
       </c>
       <c r="C48">
-        <v>1.223456793766943</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="D48">
-        <v>8.012831119389693</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="E48">
-        <v>23.12629137645428</v>
+        <v>39.31089167362747</v>
       </c>
       <c r="F48">
-        <v>10.87425581389283</v>
+        <v>18.48444635470106</v>
       </c>
       <c r="G48">
-        <v>25.75978071349281</v>
+        <v>43.78739040689937</v>
       </c>
       <c r="H48">
-        <v>3.528161526052164</v>
+        <v>5.997294304564</v>
       </c>
       <c r="I48">
-        <v>127.7234216235414</v>
+        <v>217.108809618306</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>53.6662945009603</v>
+        <v>91.22387395845793</v>
       </c>
       <c r="C49">
-        <v>2.070465343297903</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="D49">
-        <v>8.62920274395813</v>
+        <v>14.66822538796172</v>
       </c>
       <c r="E49">
-        <v>21.87622157232161</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="F49">
-        <v>9.076150521831812</v>
+        <v>15.42796309919931</v>
       </c>
       <c r="G49">
-        <v>30.91173685619138</v>
+        <v>52.54486848827925</v>
       </c>
       <c r="H49">
-        <v>0.6720307668670789</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="I49">
-        <v>126.9021023054282</v>
+        <v>215.7127018629276</v>
       </c>
     </row>
   </sheetData>
